--- a/view/assets/xlsx/schedule.xlsx
+++ b/view/assets/xlsx/schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="61">
   <si>
     <t>День</t>
   </si>
@@ -77,67 +77,94 @@
     <t>Алгоритмы и структуры данных</t>
   </si>
   <si>
-    <t>Emily Johnson</t>
+    <t>Tammy Lynch</t>
   </si>
   <si>
     <t>math</t>
   </si>
   <si>
-    <t>Christina Gray</t>
+    <t>Craig Montoya</t>
   </si>
   <si>
     <t>science</t>
   </si>
   <si>
-    <t>Meghan Chapman</t>
+    <t>Bradley Brown</t>
   </si>
   <si>
     <t>geography</t>
   </si>
   <si>
-    <t>Timothy Martinez</t>
+    <t>Laura Perez</t>
   </si>
   <si>
     <t>I.T.</t>
   </si>
   <si>
-    <t>Charles Allen</t>
+    <t>Jacob Anderson</t>
   </si>
   <si>
     <t>biology</t>
   </si>
   <si>
-    <t>Lori Glass</t>
+    <t>Charles Garcia PhD</t>
   </si>
   <si>
-    <t>Robert Fuller</t>
+    <t>Emma Logan</t>
+  </si>
+  <si>
+    <t>Christina Doyle</t>
+  </si>
+  <si>
+    <t>Evan Peterson</t>
+  </si>
+  <si>
+    <t>Dylan Lopez</t>
+  </si>
+  <si>
+    <t>Dennis Mcguire</t>
   </si>
   <si>
     <t>P.E.</t>
   </si>
   <si>
-    <t>Mariah Martinez</t>
+    <t>Michael Gibson</t>
   </si>
   <si>
     <t>art</t>
   </si>
   <si>
-    <t>James Miles</t>
+    <t>Tony Edwards DVM</t>
   </si>
   <si>
     <t>history</t>
   </si>
   <si>
-    <t>Lorraine Woodward</t>
+    <t>Amber Mueller</t>
   </si>
   <si>
     <t>music</t>
   </si>
   <si>
-    <t>Cindy Roach</t>
+    <t>Alexandra Collins</t>
   </si>
   <si>
-    <t>Shelley Hunter</t>
+    <t>Jessica Riley</t>
+  </si>
+  <si>
+    <t>Jennifer Evans</t>
+  </si>
+  <si>
+    <t>Lawrence Griffin</t>
+  </si>
+  <si>
+    <t>Susan Bond</t>
+  </si>
+  <si>
+    <t>Timothy Evans</t>
+  </si>
+  <si>
+    <t>Bryce Santana</t>
   </si>
   <si>
     <t xml:space="preserve"> 10701122 10701222 10701322</t>
@@ -149,22 +176,22 @@
     <t xml:space="preserve"> 10702322 10702422</t>
   </si>
   <si>
+    <t xml:space="preserve"> 10701222</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 10701322</t>
   </si>
   <si>
     <t xml:space="preserve"> 10702122</t>
   </si>
   <si>
+    <t xml:space="preserve"> 10702222</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 10702322</t>
   </si>
   <si>
     <t xml:space="preserve"> 10701122</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10701222</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10702222</t>
   </si>
   <si>
     <t xml:space="preserve"> 10702422</t>
@@ -587,7 +614,7 @@
   <cols>
     <col min="2" max="17" width="20.7109375" customWidth="1"/>
     <col min="18" max="18" width="10.7109375" customWidth="1"/>
-    <col min="19" max="31" width="20.7109375" customWidth="1"/>
+    <col min="19" max="101" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="11" spans="1:18">
@@ -728,7 +755,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -776,7 +803,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -814,27 +841,31 @@
         <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="G20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -868,27 +899,31 @@
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="G22" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -921,17 +956,23 @@
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3" t="s">
         <v>21</v>
@@ -967,20 +1008,26 @@
     <row r="26" spans="1:18">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="I26" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="K26" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -1108,7 +1155,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -1156,7 +1203,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -1194,30 +1241,34 @@
         <v>9</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G36" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="L36" s="3"/>
-      <c r="M36" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
+      <c r="O36" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="1" t="s">
         <v>9</v>
@@ -1248,30 +1299,34 @@
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="E38" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="G38" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5" t="s">
         <v>35</v>
       </c>
       <c r="L38" s="5"/>
-      <c r="M38" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
+      <c r="O38" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="P38" s="5"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="4"/>
@@ -1303,7 +1358,9 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -1313,9 +1370,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="1" t="s">
         <v>10</v>
@@ -1347,7 +1402,9 @@
       <c r="B42" s="1"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -1357,9 +1414,7 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
-      <c r="O42" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="4"/>
@@ -1484,7 +1539,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -1534,7 +1589,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -1574,29 +1629,33 @@
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="I52" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
+      <c r="M52" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="N52" s="3"/>
       <c r="O52" s="3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="1" t="s">
@@ -1628,29 +1687,33 @@
       <c r="A54" s="2"/>
       <c r="B54" s="1"/>
       <c r="C54" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="I54" s="5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
+      <c r="M54" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="N54" s="5"/>
       <c r="O54" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P54" s="5"/>
       <c r="Q54" s="1"/>
@@ -1685,7 +1748,9 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="G56" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -1693,9 +1758,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-      <c r="O56" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="1" t="s">
         <v>10</v>
@@ -1729,7 +1792,9 @@
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+      <c r="G58" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -1737,9 +1802,7 @@
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
-      <c r="O58" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="O58" s="5"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="4"/>
@@ -1864,7 +1927,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -1914,13 +1977,13 @@
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
@@ -1954,26 +2017,32 @@
         <v>9</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
       <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
+      <c r="M68" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
+      <c r="O68" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="1" t="s">
         <v>9</v>
@@ -2004,26 +2073,32 @@
       <c r="A70" s="2"/>
       <c r="B70" s="1"/>
       <c r="C70" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H70" s="5"/>
       <c r="I70" s="5" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
+      <c r="K70" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
+      <c r="M70" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
+      <c r="O70" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="P70" s="5"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="4"/>
@@ -2232,16 +2307,18 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="1" t="s">
         <v>8</v>
@@ -2282,16 +2359,18 @@
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
       <c r="P82" s="5"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="4"/>
@@ -2322,24 +2401,30 @@
         <v>9</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
+      <c r="E84" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
+      <c r="G84" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
+      <c r="O84" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="P84" s="3"/>
       <c r="Q84" s="1" t="s">
         <v>9</v>
@@ -2370,24 +2455,30 @@
       <c r="A86" s="2"/>
       <c r="B86" s="1"/>
       <c r="C86" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
+      <c r="E86" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
+      <c r="G86" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="H86" s="5"/>
       <c r="I86" s="5" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
+      <c r="O86" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="P86" s="5"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="4"/>
@@ -2646,7 +2737,7 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -2685,21 +2776,29 @@
       <c r="B100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="3"/>
+      <c r="C100" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
@@ -2731,21 +2830,29 @@
     <row r="102" spans="1:18">
       <c r="A102" s="2"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="5"/>
+      <c r="C102" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
+      <c r="G102" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
+      <c r="I102" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="J102" s="5"/>
       <c r="K102" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
+      <c r="M102" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="5"/>
@@ -2941,7 +3048,7 @@
       <c r="R111" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="355">
+  <mergeCells count="545">
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="A16:A31"/>
@@ -3025,10 +3132,10 @@
     <mergeCell ref="C82:H83"/>
     <mergeCell ref="C96:H97"/>
     <mergeCell ref="C98:H99"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="C52:D53"/>
     <mergeCell ref="C54:D55"/>
     <mergeCell ref="C68:D69"/>
@@ -3039,32 +3146,58 @@
     <mergeCell ref="C102:D103"/>
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="C72:D73"/>
-    <mergeCell ref="C74:D75"/>
-    <mergeCell ref="C88:D89"/>
-    <mergeCell ref="C90:D91"/>
-    <mergeCell ref="C104:D105"/>
-    <mergeCell ref="C106:D107"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="C76:D77"/>
-    <mergeCell ref="C78:D79"/>
-    <mergeCell ref="C92:D93"/>
-    <mergeCell ref="C94:D95"/>
-    <mergeCell ref="C108:D109"/>
-    <mergeCell ref="C110:D111"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
     <mergeCell ref="E52:F53"/>
     <mergeCell ref="E54:F55"/>
     <mergeCell ref="E68:F69"/>
@@ -3073,66 +3206,118 @@
     <mergeCell ref="E86:F87"/>
     <mergeCell ref="E100:F101"/>
     <mergeCell ref="E102:F103"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="E40:F41"/>
     <mergeCell ref="E42:F43"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="E72:F73"/>
-    <mergeCell ref="E74:F75"/>
-    <mergeCell ref="E88:F89"/>
-    <mergeCell ref="E90:F91"/>
-    <mergeCell ref="E104:F105"/>
-    <mergeCell ref="E106:F107"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="E60:F61"/>
-    <mergeCell ref="E62:F63"/>
-    <mergeCell ref="E76:F77"/>
-    <mergeCell ref="E78:F79"/>
-    <mergeCell ref="E92:F93"/>
-    <mergeCell ref="E94:F95"/>
-    <mergeCell ref="E108:F109"/>
-    <mergeCell ref="E110:F111"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="F110:F111"/>
     <mergeCell ref="G20:H21"/>
     <mergeCell ref="G22:H23"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G38:H39"/>
-    <mergeCell ref="G52:H53"/>
-    <mergeCell ref="G54:H55"/>
-    <mergeCell ref="G68:H69"/>
-    <mergeCell ref="G70:H71"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G70:G71"/>
     <mergeCell ref="G84:H85"/>
     <mergeCell ref="G86:H87"/>
     <mergeCell ref="G100:H101"/>
     <mergeCell ref="G102:H103"/>
     <mergeCell ref="G24:H25"/>
     <mergeCell ref="G26:H27"/>
-    <mergeCell ref="G40:H41"/>
-    <mergeCell ref="G42:H43"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
     <mergeCell ref="G56:H57"/>
     <mergeCell ref="G58:H59"/>
-    <mergeCell ref="G72:H73"/>
-    <mergeCell ref="G74:H75"/>
-    <mergeCell ref="G88:H89"/>
-    <mergeCell ref="G90:H91"/>
-    <mergeCell ref="G104:H105"/>
-    <mergeCell ref="G106:H107"/>
-    <mergeCell ref="G28:H29"/>
-    <mergeCell ref="G30:H31"/>
-    <mergeCell ref="G44:H45"/>
-    <mergeCell ref="G46:H47"/>
-    <mergeCell ref="G60:H61"/>
-    <mergeCell ref="G62:H63"/>
-    <mergeCell ref="G76:H77"/>
-    <mergeCell ref="G78:H79"/>
-    <mergeCell ref="G92:H93"/>
-    <mergeCell ref="G94:H95"/>
-    <mergeCell ref="G108:H109"/>
-    <mergeCell ref="G110:H111"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="H108:H109"/>
+    <mergeCell ref="H110:H111"/>
     <mergeCell ref="I16:P17"/>
     <mergeCell ref="I18:P19"/>
     <mergeCell ref="I32:P33"/>
@@ -3147,156 +3332,268 @@
     <mergeCell ref="I98:L99"/>
     <mergeCell ref="I20:J21"/>
     <mergeCell ref="I22:J23"/>
-    <mergeCell ref="I36:J37"/>
-    <mergeCell ref="I38:J39"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
     <mergeCell ref="I52:J53"/>
     <mergeCell ref="I54:J55"/>
     <mergeCell ref="I68:J69"/>
     <mergeCell ref="I70:J71"/>
-    <mergeCell ref="I84:J85"/>
-    <mergeCell ref="I86:J87"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I86:I87"/>
     <mergeCell ref="I100:J101"/>
     <mergeCell ref="I102:J103"/>
     <mergeCell ref="I24:J25"/>
     <mergeCell ref="I26:J27"/>
-    <mergeCell ref="I40:J41"/>
-    <mergeCell ref="I42:J43"/>
-    <mergeCell ref="I56:J57"/>
-    <mergeCell ref="I58:J59"/>
-    <mergeCell ref="I72:J73"/>
-    <mergeCell ref="I74:J75"/>
-    <mergeCell ref="I88:J89"/>
-    <mergeCell ref="I90:J91"/>
-    <mergeCell ref="I104:J105"/>
-    <mergeCell ref="I106:J107"/>
-    <mergeCell ref="I28:J29"/>
-    <mergeCell ref="I30:J31"/>
-    <mergeCell ref="I44:J45"/>
-    <mergeCell ref="I46:J47"/>
-    <mergeCell ref="I60:J61"/>
-    <mergeCell ref="I62:J63"/>
-    <mergeCell ref="I76:J77"/>
-    <mergeCell ref="I78:J79"/>
-    <mergeCell ref="I92:J93"/>
-    <mergeCell ref="I94:J95"/>
-    <mergeCell ref="I108:J109"/>
-    <mergeCell ref="I110:J111"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="I110:I111"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="J106:J107"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="J110:J111"/>
     <mergeCell ref="K20:L21"/>
     <mergeCell ref="K22:L23"/>
     <mergeCell ref="K36:L37"/>
     <mergeCell ref="K38:L39"/>
-    <mergeCell ref="K52:L53"/>
-    <mergeCell ref="K54:L55"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="K54:K55"/>
     <mergeCell ref="K68:L69"/>
     <mergeCell ref="K70:L71"/>
     <mergeCell ref="K84:L85"/>
     <mergeCell ref="K86:L87"/>
-    <mergeCell ref="K100:L101"/>
-    <mergeCell ref="K102:L103"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="K102:K103"/>
     <mergeCell ref="K24:L25"/>
     <mergeCell ref="K26:L27"/>
-    <mergeCell ref="K40:L41"/>
-    <mergeCell ref="K42:L43"/>
-    <mergeCell ref="K56:L57"/>
-    <mergeCell ref="K58:L59"/>
-    <mergeCell ref="K72:L73"/>
-    <mergeCell ref="K74:L75"/>
-    <mergeCell ref="K88:L89"/>
-    <mergeCell ref="K90:L91"/>
-    <mergeCell ref="K104:L105"/>
-    <mergeCell ref="K106:L107"/>
-    <mergeCell ref="K28:L29"/>
-    <mergeCell ref="K30:L31"/>
-    <mergeCell ref="K44:L45"/>
-    <mergeCell ref="K46:L47"/>
-    <mergeCell ref="K60:L61"/>
-    <mergeCell ref="K62:L63"/>
-    <mergeCell ref="K76:L77"/>
-    <mergeCell ref="K78:L79"/>
-    <mergeCell ref="K92:L93"/>
-    <mergeCell ref="K94:L95"/>
-    <mergeCell ref="K108:L109"/>
-    <mergeCell ref="K110:L111"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="K106:K107"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="L90:L91"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="L106:L107"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="L94:L95"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="L110:L111"/>
     <mergeCell ref="M48:P49"/>
     <mergeCell ref="M50:P51"/>
     <mergeCell ref="M64:P65"/>
     <mergeCell ref="M66:P67"/>
-    <mergeCell ref="M80:N81"/>
-    <mergeCell ref="M82:N83"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="M82:M83"/>
     <mergeCell ref="M96:P97"/>
     <mergeCell ref="M98:P99"/>
     <mergeCell ref="M20:P21"/>
     <mergeCell ref="M22:P23"/>
-    <mergeCell ref="M36:N37"/>
-    <mergeCell ref="M38:N39"/>
-    <mergeCell ref="M52:N53"/>
-    <mergeCell ref="M54:N55"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="M54:M55"/>
     <mergeCell ref="M68:N69"/>
     <mergeCell ref="M70:N71"/>
-    <mergeCell ref="M84:N85"/>
-    <mergeCell ref="M86:N87"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="M86:M87"/>
     <mergeCell ref="M100:N101"/>
     <mergeCell ref="M102:N103"/>
     <mergeCell ref="M24:N25"/>
     <mergeCell ref="M26:N27"/>
-    <mergeCell ref="M40:N41"/>
-    <mergeCell ref="M42:N43"/>
-    <mergeCell ref="M56:N57"/>
-    <mergeCell ref="M58:N59"/>
-    <mergeCell ref="M72:N73"/>
-    <mergeCell ref="M74:N75"/>
-    <mergeCell ref="M88:N89"/>
-    <mergeCell ref="M90:N91"/>
-    <mergeCell ref="M104:N105"/>
-    <mergeCell ref="M106:N107"/>
-    <mergeCell ref="M28:N29"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="M44:N45"/>
-    <mergeCell ref="M46:N47"/>
-    <mergeCell ref="M60:N61"/>
-    <mergeCell ref="M62:N63"/>
-    <mergeCell ref="M76:N77"/>
-    <mergeCell ref="M78:N79"/>
-    <mergeCell ref="M92:N93"/>
-    <mergeCell ref="M94:N95"/>
-    <mergeCell ref="M108:N109"/>
-    <mergeCell ref="M110:N111"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="M88:M89"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="M106:M107"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="M108:M109"/>
+    <mergeCell ref="M110:M111"/>
+    <mergeCell ref="N80:N81"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="N84:N85"/>
+    <mergeCell ref="N86:N87"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="N74:N75"/>
+    <mergeCell ref="N88:N89"/>
+    <mergeCell ref="N90:N91"/>
+    <mergeCell ref="N104:N105"/>
+    <mergeCell ref="N106:N107"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="N76:N77"/>
+    <mergeCell ref="N78:N79"/>
+    <mergeCell ref="N92:N93"/>
+    <mergeCell ref="N94:N95"/>
+    <mergeCell ref="N108:N109"/>
+    <mergeCell ref="N110:N111"/>
     <mergeCell ref="O80:P81"/>
     <mergeCell ref="O82:P83"/>
     <mergeCell ref="O36:P37"/>
     <mergeCell ref="O38:P39"/>
-    <mergeCell ref="O52:P53"/>
-    <mergeCell ref="O54:P55"/>
-    <mergeCell ref="O68:P69"/>
-    <mergeCell ref="O70:P71"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="O70:O71"/>
     <mergeCell ref="O84:P85"/>
     <mergeCell ref="O86:P87"/>
-    <mergeCell ref="O100:P101"/>
-    <mergeCell ref="O102:P103"/>
-    <mergeCell ref="O24:P25"/>
-    <mergeCell ref="O26:P27"/>
-    <mergeCell ref="O40:P41"/>
-    <mergeCell ref="O42:P43"/>
-    <mergeCell ref="O56:P57"/>
-    <mergeCell ref="O58:P59"/>
-    <mergeCell ref="O72:P73"/>
-    <mergeCell ref="O74:P75"/>
-    <mergeCell ref="O88:P89"/>
-    <mergeCell ref="O90:P91"/>
-    <mergeCell ref="O104:P105"/>
-    <mergeCell ref="O106:P107"/>
-    <mergeCell ref="O28:P29"/>
-    <mergeCell ref="O30:P31"/>
-    <mergeCell ref="O44:P45"/>
-    <mergeCell ref="O46:P47"/>
-    <mergeCell ref="O60:P61"/>
-    <mergeCell ref="O62:P63"/>
-    <mergeCell ref="O76:P77"/>
-    <mergeCell ref="O78:P79"/>
-    <mergeCell ref="O92:P93"/>
-    <mergeCell ref="O94:P95"/>
-    <mergeCell ref="O108:P109"/>
-    <mergeCell ref="O110:P111"/>
+    <mergeCell ref="O100:O101"/>
+    <mergeCell ref="O102:O103"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="O74:O75"/>
+    <mergeCell ref="O88:O89"/>
+    <mergeCell ref="O90:O91"/>
+    <mergeCell ref="O104:O105"/>
+    <mergeCell ref="O106:O107"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="O76:O77"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="O92:O93"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="O108:O109"/>
+    <mergeCell ref="O110:O111"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="P100:P101"/>
+    <mergeCell ref="P102:P103"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="P72:P73"/>
+    <mergeCell ref="P74:P75"/>
+    <mergeCell ref="P88:P89"/>
+    <mergeCell ref="P90:P91"/>
+    <mergeCell ref="P104:P105"/>
+    <mergeCell ref="P106:P107"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="P76:P77"/>
+    <mergeCell ref="P78:P79"/>
+    <mergeCell ref="P92:P93"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="P108:P109"/>
+    <mergeCell ref="P110:P111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3304,18 +3601,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A11:AB111"/>
+  <dimension ref="A11:AT111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="27" width="20.7109375" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" customWidth="1"/>
-    <col min="29" max="31" width="20.7109375" customWidth="1"/>
+    <col min="2" max="45" width="20.7109375" customWidth="1"/>
+    <col min="46" max="46" width="10.7109375" customWidth="1"/>
+    <col min="47" max="101" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:46">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -3339,11 +3636,11 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
@@ -3351,33 +3648,69 @@
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AT11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:46">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3406,8 +3739,26 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+    </row>
+    <row r="13" spans="1:46">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3436,8 +3787,26 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+    </row>
+    <row r="14" spans="1:46">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3466,8 +3835,26 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+    </row>
+    <row r="15" spans="1:46">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3496,8 +3883,26 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+    </row>
+    <row r="16" spans="1:46">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -3524,9 +3929,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -3534,14 +3937,34 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AA16" s="1" t="s">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AB16" s="4" t="s">
+      <c r="AT16" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:46">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
@@ -3568,20 +3991,38 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="4"/>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="4"/>
+    </row>
+    <row r="18" spans="1:46">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -3594,9 +4035,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-      <c r="S18" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
@@ -3604,10 +4043,30 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="4"/>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="4"/>
+    </row>
+    <row r="19" spans="1:46">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="5"/>
@@ -3634,18 +4093,38 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="4"/>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="4"/>
+    </row>
+    <row r="20" spans="1:46">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
@@ -3653,22 +4132,20 @@
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N20" s="3"/>
-      <c r="O20" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="Q20" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -3678,12 +4155,34 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-      <c r="AA20" s="1" t="s">
+      <c r="AA20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AB20" s="4"/>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AT20" s="4"/>
+    </row>
+    <row r="21" spans="1:46">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
@@ -3710,39 +4209,57 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="4"/>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="4"/>
+    </row>
+    <row r="22" spans="1:46">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J22" s="5"/>
-      <c r="K22" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N22" s="5"/>
-      <c r="O22" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
+      <c r="Q22" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
@@ -3752,10 +4269,32 @@
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="4"/>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="AA22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="4"/>
+    </row>
+    <row r="23" spans="1:46">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="5"/>
@@ -3782,10 +4321,28 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="4"/>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="4"/>
+    </row>
+    <row r="24" spans="1:46">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>10</v>
@@ -3798,7 +4355,9 @@
         <v>21</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -3812,18 +4371,40 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
-      <c r="AA24" s="1" t="s">
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AB24" s="4"/>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="AT24" s="4"/>
+    </row>
+    <row r="25" spans="1:46">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
@@ -3850,10 +4431,28 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="4"/>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="4"/>
+    </row>
+    <row r="26" spans="1:46">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="5"/>
@@ -3861,10 +4460,12 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="I26" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -3878,16 +4479,38 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
-      <c r="W26" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="4"/>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="4"/>
+    </row>
+    <row r="27" spans="1:46">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="5"/>
@@ -3914,10 +4537,28 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="4"/>
-    </row>
-    <row r="28" spans="1:28">
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="4"/>
+    </row>
+    <row r="28" spans="1:46">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>11</v>
@@ -3946,12 +4587,30 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
-      <c r="AA28" s="1" t="s">
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AB28" s="4"/>
-    </row>
-    <row r="29" spans="1:28">
+      <c r="AT28" s="4"/>
+    </row>
+    <row r="29" spans="1:46">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3"/>
@@ -3978,10 +4637,28 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="4"/>
-    </row>
-    <row r="30" spans="1:28">
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="4"/>
+    </row>
+    <row r="30" spans="1:46">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="5"/>
@@ -4008,10 +4685,28 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="4"/>
-    </row>
-    <row r="31" spans="1:28">
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5"/>
+      <c r="AQ30" s="5"/>
+      <c r="AR30" s="5"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="4"/>
+    </row>
+    <row r="31" spans="1:46">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="5"/>
@@ -4038,10 +4733,28 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="4"/>
-    </row>
-    <row r="32" spans="1:28">
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="5"/>
+      <c r="AR31" s="5"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="4"/>
+    </row>
+    <row r="32" spans="1:46">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
@@ -4068,9 +4781,7 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
-      <c r="S32" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
@@ -4078,14 +4789,34 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
-      <c r="AA32" s="1" t="s">
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AB32" s="4" t="s">
+      <c r="AT32" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:46">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
@@ -4112,20 +4843,38 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="4"/>
-    </row>
-    <row r="34" spans="1:28">
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="4"/>
+    </row>
+    <row r="34" spans="1:46">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -4138,9 +4887,7 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
-      <c r="S34" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
@@ -4148,10 +4895,30 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="4"/>
-    </row>
-    <row r="35" spans="1:28">
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="4"/>
+    </row>
+    <row r="35" spans="1:46">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="5"/>
@@ -4178,18 +4945,38 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="4"/>
-    </row>
-    <row r="36" spans="1:28">
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="5"/>
+      <c r="AR35" s="5"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="4"/>
+    </row>
+    <row r="36" spans="1:46">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
@@ -4197,21 +4984,17 @@
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
-      <c r="M36" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -4222,12 +5005,36 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
-      <c r="AA36" s="1" t="s">
+      <c r="AA36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AB36" s="4"/>
-    </row>
-    <row r="37" spans="1:28">
+      <c r="AT36" s="4"/>
+    </row>
+    <row r="37" spans="1:46">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
@@ -4254,38 +5061,54 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="4"/>
-    </row>
-    <row r="38" spans="1:28">
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="4"/>
+    </row>
+    <row r="38" spans="1:46">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
-      <c r="O38" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
@@ -4296,10 +5119,34 @@
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="4"/>
-    </row>
-    <row r="39" spans="1:28">
+      <c r="AA38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="5"/>
+      <c r="AR38" s="5"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="4"/>
+    </row>
+    <row r="39" spans="1:46">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="5"/>
@@ -4326,10 +5173,28 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="4"/>
-    </row>
-    <row r="40" spans="1:28">
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="5"/>
+      <c r="AR39" s="5"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="4"/>
+    </row>
+    <row r="40" spans="1:46">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
         <v>10</v>
@@ -4338,9 +5203,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -4360,12 +5223,32 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-      <c r="AA40" s="1" t="s">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AB40" s="4"/>
-    </row>
-    <row r="41" spans="1:28">
+      <c r="AT40" s="4"/>
+    </row>
+    <row r="41" spans="1:46">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
@@ -4392,19 +5275,35 @@
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="4"/>
-    </row>
-    <row r="42" spans="1:28">
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3"/>
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="4"/>
+    </row>
+    <row r="42" spans="1:46">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -4424,10 +5323,30 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="4"/>
-    </row>
-    <row r="43" spans="1:28">
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP42" s="5"/>
+      <c r="AQ42" s="5"/>
+      <c r="AR42" s="5"/>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="4"/>
+    </row>
+    <row r="43" spans="1:46">
       <c r="A43" s="2"/>
       <c r="B43" s="1"/>
       <c r="C43" s="5"/>
@@ -4454,10 +5373,28 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="4"/>
-    </row>
-    <row r="44" spans="1:28">
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="5"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="4"/>
+    </row>
+    <row r="44" spans="1:46">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
         <v>11</v>
@@ -4486,12 +5423,30 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
-      <c r="AA44" s="1" t="s">
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3"/>
+      <c r="AM44" s="3"/>
+      <c r="AN44" s="3"/>
+      <c r="AO44" s="3"/>
+      <c r="AP44" s="3"/>
+      <c r="AQ44" s="3"/>
+      <c r="AR44" s="3"/>
+      <c r="AS44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AB44" s="4"/>
-    </row>
-    <row r="45" spans="1:28">
+      <c r="AT44" s="4"/>
+    </row>
+    <row r="45" spans="1:46">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
@@ -4518,10 +5473,28 @@
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="4"/>
-    </row>
-    <row r="46" spans="1:28">
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="3"/>
+      <c r="AN45" s="3"/>
+      <c r="AO45" s="3"/>
+      <c r="AP45" s="3"/>
+      <c r="AQ45" s="3"/>
+      <c r="AR45" s="3"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="4"/>
+    </row>
+    <row r="46" spans="1:46">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="5"/>
@@ -4548,10 +5521,28 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
-      <c r="AA46" s="1"/>
-      <c r="AB46" s="4"/>
-    </row>
-    <row r="47" spans="1:28">
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="5"/>
+      <c r="AQ46" s="5"/>
+      <c r="AR46" s="5"/>
+      <c r="AS46" s="1"/>
+      <c r="AT46" s="4"/>
+    </row>
+    <row r="47" spans="1:46">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="5"/>
@@ -4578,10 +5569,28 @@
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="4"/>
-    </row>
-    <row r="48" spans="1:28">
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5"/>
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="5"/>
+      <c r="AO47" s="5"/>
+      <c r="AP47" s="5"/>
+      <c r="AQ47" s="5"/>
+      <c r="AR47" s="5"/>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="4"/>
+    </row>
+    <row r="48" spans="1:46">
       <c r="A48" s="2" t="s">
         <v>4</v>
       </c>
@@ -4596,21 +5605,21 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
+      <c r="O48" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
+      <c r="S48" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
@@ -4618,14 +5627,32 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
-      <c r="AA48" s="1" t="s">
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+      <c r="AK48" s="3"/>
+      <c r="AL48" s="3"/>
+      <c r="AM48" s="3"/>
+      <c r="AN48" s="3"/>
+      <c r="AO48" s="3"/>
+      <c r="AP48" s="3"/>
+      <c r="AQ48" s="3"/>
+      <c r="AR48" s="3"/>
+      <c r="AS48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AB48" s="4" t="s">
+      <c r="AT48" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:46">
       <c r="A49" s="2"/>
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
@@ -4652,35 +5679,53 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="4"/>
-    </row>
-    <row r="50" spans="1:28">
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3"/>
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="3"/>
+      <c r="AM49" s="3"/>
+      <c r="AN49" s="3"/>
+      <c r="AO49" s="3"/>
+      <c r="AP49" s="3"/>
+      <c r="AQ49" s="3"/>
+      <c r="AR49" s="3"/>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="4"/>
+    </row>
+    <row r="50" spans="1:46">
       <c r="A50" s="2"/>
       <c r="B50" s="1"/>
       <c r="C50" s="5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
+      <c r="O50" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
+      <c r="S50" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
@@ -4688,10 +5733,28 @@
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="4"/>
-    </row>
-    <row r="51" spans="1:28">
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5"/>
+      <c r="AJ50" s="5"/>
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="5"/>
+      <c r="AM50" s="5"/>
+      <c r="AN50" s="5"/>
+      <c r="AO50" s="5"/>
+      <c r="AP50" s="5"/>
+      <c r="AQ50" s="5"/>
+      <c r="AR50" s="5"/>
+      <c r="AS50" s="1"/>
+      <c r="AT50" s="4"/>
+    </row>
+    <row r="51" spans="1:46">
       <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="C51" s="5"/>
@@ -4718,18 +5781,38 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
-      <c r="AA51" s="1"/>
-      <c r="AB51" s="4"/>
-    </row>
-    <row r="52" spans="1:28">
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+      <c r="AJ51" s="5"/>
+      <c r="AK51" s="5"/>
+      <c r="AL51" s="5"/>
+      <c r="AM51" s="5"/>
+      <c r="AN51" s="5"/>
+      <c r="AO51" s="5"/>
+      <c r="AP51" s="5"/>
+      <c r="AQ51" s="5"/>
+      <c r="AR51" s="5"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="4"/>
+    </row>
+    <row r="52" spans="1:46">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
@@ -4738,18 +5821,16 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
+      <c r="M52" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="N52" s="3"/>
-      <c r="O52" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
@@ -4758,16 +5839,38 @@
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
-      <c r="Y52" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
-      <c r="AA52" s="1" t="s">
+      <c r="AA52" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF52" s="3"/>
+      <c r="AG52" s="3"/>
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="3"/>
+      <c r="AK52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL52" s="3"/>
+      <c r="AM52" s="3"/>
+      <c r="AN52" s="3"/>
+      <c r="AO52" s="3"/>
+      <c r="AP52" s="3"/>
+      <c r="AQ52" s="3"/>
+      <c r="AR52" s="3"/>
+      <c r="AS52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AB52" s="4"/>
-    </row>
-    <row r="53" spans="1:28">
+      <c r="AT52" s="4"/>
+    </row>
+    <row r="53" spans="1:46">
       <c r="A53" s="2"/>
       <c r="B53" s="1"/>
       <c r="C53" s="3"/>
@@ -4794,36 +5897,54 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
-      <c r="AA53" s="1"/>
-      <c r="AB53" s="4"/>
-    </row>
-    <row r="54" spans="1:28">
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="3"/>
+      <c r="AH53" s="3"/>
+      <c r="AI53" s="3"/>
+      <c r="AJ53" s="3"/>
+      <c r="AK53" s="3"/>
+      <c r="AL53" s="3"/>
+      <c r="AM53" s="3"/>
+      <c r="AN53" s="3"/>
+      <c r="AO53" s="3"/>
+      <c r="AP53" s="3"/>
+      <c r="AQ53" s="3"/>
+      <c r="AR53" s="3"/>
+      <c r="AS53" s="1"/>
+      <c r="AT53" s="4"/>
+    </row>
+    <row r="54" spans="1:46">
       <c r="A54" s="2"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="5"/>
+      <c r="C54" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
-      <c r="K54" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="K54" s="5"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
+      <c r="M54" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="N54" s="5"/>
-      <c r="O54" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="O54" s="5"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
@@ -4832,14 +5953,36 @@
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
-      <c r="Y54" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="4"/>
-    </row>
-    <row r="55" spans="1:28">
+      <c r="AA54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL54" s="5"/>
+      <c r="AM54" s="5"/>
+      <c r="AN54" s="5"/>
+      <c r="AO54" s="5"/>
+      <c r="AP54" s="5"/>
+      <c r="AQ54" s="5"/>
+      <c r="AR54" s="5"/>
+      <c r="AS54" s="1"/>
+      <c r="AT54" s="4"/>
+    </row>
+    <row r="55" spans="1:46">
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
       <c r="C55" s="5"/>
@@ -4866,10 +6009,28 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
-      <c r="AA55" s="1"/>
-      <c r="AB55" s="4"/>
-    </row>
-    <row r="56" spans="1:28">
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="5"/>
+      <c r="AJ55" s="5"/>
+      <c r="AK55" s="5"/>
+      <c r="AL55" s="5"/>
+      <c r="AM55" s="5"/>
+      <c r="AN55" s="5"/>
+      <c r="AO55" s="5"/>
+      <c r="AP55" s="5"/>
+      <c r="AQ55" s="5"/>
+      <c r="AR55" s="5"/>
+      <c r="AS55" s="1"/>
+      <c r="AT55" s="4"/>
+    </row>
+    <row r="56" spans="1:46">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
         <v>10</v>
@@ -4878,9 +6039,7 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -4900,12 +6059,32 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-      <c r="AA56" s="1" t="s">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="3"/>
+      <c r="AH56" s="3"/>
+      <c r="AI56" s="3"/>
+      <c r="AJ56" s="3"/>
+      <c r="AK56" s="3"/>
+      <c r="AL56" s="3"/>
+      <c r="AM56" s="3"/>
+      <c r="AN56" s="3"/>
+      <c r="AO56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP56" s="3"/>
+      <c r="AQ56" s="3"/>
+      <c r="AR56" s="3"/>
+      <c r="AS56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AB56" s="4"/>
-    </row>
-    <row r="57" spans="1:28">
+      <c r="AT56" s="4"/>
+    </row>
+    <row r="57" spans="1:46">
       <c r="A57" s="2"/>
       <c r="B57" s="1"/>
       <c r="C57" s="3"/>
@@ -4932,19 +6111,35 @@
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
-      <c r="AA57" s="1"/>
-      <c r="AB57" s="4"/>
-    </row>
-    <row r="58" spans="1:28">
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+      <c r="AG57" s="3"/>
+      <c r="AH57" s="3"/>
+      <c r="AI57" s="3"/>
+      <c r="AJ57" s="3"/>
+      <c r="AK57" s="3"/>
+      <c r="AL57" s="3"/>
+      <c r="AM57" s="3"/>
+      <c r="AN57" s="3"/>
+      <c r="AO57" s="3"/>
+      <c r="AP57" s="3"/>
+      <c r="AQ57" s="3"/>
+      <c r="AR57" s="3"/>
+      <c r="AS57" s="1"/>
+      <c r="AT57" s="4"/>
+    </row>
+    <row r="58" spans="1:46">
       <c r="A58" s="2"/>
       <c r="B58" s="1"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -4964,10 +6159,30 @@
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
-      <c r="AA58" s="1"/>
-      <c r="AB58" s="4"/>
-    </row>
-    <row r="59" spans="1:28">
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="5"/>
+      <c r="AJ58" s="5"/>
+      <c r="AK58" s="5"/>
+      <c r="AL58" s="5"/>
+      <c r="AM58" s="5"/>
+      <c r="AN58" s="5"/>
+      <c r="AO58" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP58" s="5"/>
+      <c r="AQ58" s="5"/>
+      <c r="AR58" s="5"/>
+      <c r="AS58" s="1"/>
+      <c r="AT58" s="4"/>
+    </row>
+    <row r="59" spans="1:46">
       <c r="A59" s="2"/>
       <c r="B59" s="1"/>
       <c r="C59" s="5"/>
@@ -4994,10 +6209,28 @@
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
-      <c r="AA59" s="1"/>
-      <c r="AB59" s="4"/>
-    </row>
-    <row r="60" spans="1:28">
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+      <c r="AI59" s="5"/>
+      <c r="AJ59" s="5"/>
+      <c r="AK59" s="5"/>
+      <c r="AL59" s="5"/>
+      <c r="AM59" s="5"/>
+      <c r="AN59" s="5"/>
+      <c r="AO59" s="5"/>
+      <c r="AP59" s="5"/>
+      <c r="AQ59" s="5"/>
+      <c r="AR59" s="5"/>
+      <c r="AS59" s="1"/>
+      <c r="AT59" s="4"/>
+    </row>
+    <row r="60" spans="1:46">
       <c r="A60" s="2"/>
       <c r="B60" s="1" t="s">
         <v>11</v>
@@ -5026,12 +6259,30 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
-      <c r="AA60" s="1" t="s">
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
+      <c r="AF60" s="3"/>
+      <c r="AG60" s="3"/>
+      <c r="AH60" s="3"/>
+      <c r="AI60" s="3"/>
+      <c r="AJ60" s="3"/>
+      <c r="AK60" s="3"/>
+      <c r="AL60" s="3"/>
+      <c r="AM60" s="3"/>
+      <c r="AN60" s="3"/>
+      <c r="AO60" s="3"/>
+      <c r="AP60" s="3"/>
+      <c r="AQ60" s="3"/>
+      <c r="AR60" s="3"/>
+      <c r="AS60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AB60" s="4"/>
-    </row>
-    <row r="61" spans="1:28">
+      <c r="AT60" s="4"/>
+    </row>
+    <row r="61" spans="1:46">
       <c r="A61" s="2"/>
       <c r="B61" s="1"/>
       <c r="C61" s="3"/>
@@ -5058,10 +6309,28 @@
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
-      <c r="AA61" s="1"/>
-      <c r="AB61" s="4"/>
-    </row>
-    <row r="62" spans="1:28">
+      <c r="AA61" s="3"/>
+      <c r="AB61" s="3"/>
+      <c r="AC61" s="3"/>
+      <c r="AD61" s="3"/>
+      <c r="AE61" s="3"/>
+      <c r="AF61" s="3"/>
+      <c r="AG61" s="3"/>
+      <c r="AH61" s="3"/>
+      <c r="AI61" s="3"/>
+      <c r="AJ61" s="3"/>
+      <c r="AK61" s="3"/>
+      <c r="AL61" s="3"/>
+      <c r="AM61" s="3"/>
+      <c r="AN61" s="3"/>
+      <c r="AO61" s="3"/>
+      <c r="AP61" s="3"/>
+      <c r="AQ61" s="3"/>
+      <c r="AR61" s="3"/>
+      <c r="AS61" s="1"/>
+      <c r="AT61" s="4"/>
+    </row>
+    <row r="62" spans="1:46">
       <c r="A62" s="2"/>
       <c r="B62" s="1"/>
       <c r="C62" s="5"/>
@@ -5088,10 +6357,28 @@
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
-      <c r="AA62" s="1"/>
-      <c r="AB62" s="4"/>
-    </row>
-    <row r="63" spans="1:28">
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5"/>
+      <c r="AI62" s="5"/>
+      <c r="AJ62" s="5"/>
+      <c r="AK62" s="5"/>
+      <c r="AL62" s="5"/>
+      <c r="AM62" s="5"/>
+      <c r="AN62" s="5"/>
+      <c r="AO62" s="5"/>
+      <c r="AP62" s="5"/>
+      <c r="AQ62" s="5"/>
+      <c r="AR62" s="5"/>
+      <c r="AS62" s="1"/>
+      <c r="AT62" s="4"/>
+    </row>
+    <row r="63" spans="1:46">
       <c r="A63" s="2"/>
       <c r="B63" s="1"/>
       <c r="C63" s="5"/>
@@ -5118,10 +6405,28 @@
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
-      <c r="AA63" s="1"/>
-      <c r="AB63" s="4"/>
-    </row>
-    <row r="64" spans="1:28">
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="5"/>
+      <c r="AI63" s="5"/>
+      <c r="AJ63" s="5"/>
+      <c r="AK63" s="5"/>
+      <c r="AL63" s="5"/>
+      <c r="AM63" s="5"/>
+      <c r="AN63" s="5"/>
+      <c r="AO63" s="5"/>
+      <c r="AP63" s="5"/>
+      <c r="AQ63" s="5"/>
+      <c r="AR63" s="5"/>
+      <c r="AS63" s="1"/>
+      <c r="AT63" s="4"/>
+    </row>
+    <row r="64" spans="1:46">
       <c r="A64" s="2" t="s">
         <v>5</v>
       </c>
@@ -5132,40 +6437,58 @@
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
+      <c r="K64" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="L64" s="3"/>
-      <c r="M64" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
-      <c r="Q64" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
+      <c r="W64" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
-      <c r="AA64" s="1" t="s">
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+      <c r="AC64" s="3"/>
+      <c r="AD64" s="3"/>
+      <c r="AE64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF64" s="3"/>
+      <c r="AG64" s="3"/>
+      <c r="AH64" s="3"/>
+      <c r="AI64" s="3"/>
+      <c r="AJ64" s="3"/>
+      <c r="AK64" s="3"/>
+      <c r="AL64" s="3"/>
+      <c r="AM64" s="3"/>
+      <c r="AN64" s="3"/>
+      <c r="AO64" s="3"/>
+      <c r="AP64" s="3"/>
+      <c r="AQ64" s="3"/>
+      <c r="AR64" s="3"/>
+      <c r="AS64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AB64" s="4" t="s">
+      <c r="AT64" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:28">
+    <row r="65" spans="1:46">
       <c r="A65" s="2"/>
       <c r="B65" s="1"/>
       <c r="C65" s="3"/>
@@ -5192,46 +6515,82 @@
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
-      <c r="AA65" s="1"/>
-      <c r="AB65" s="4"/>
-    </row>
-    <row r="66" spans="1:28">
+      <c r="AA65" s="3"/>
+      <c r="AB65" s="3"/>
+      <c r="AC65" s="3"/>
+      <c r="AD65" s="3"/>
+      <c r="AE65" s="3"/>
+      <c r="AF65" s="3"/>
+      <c r="AG65" s="3"/>
+      <c r="AH65" s="3"/>
+      <c r="AI65" s="3"/>
+      <c r="AJ65" s="3"/>
+      <c r="AK65" s="3"/>
+      <c r="AL65" s="3"/>
+      <c r="AM65" s="3"/>
+      <c r="AN65" s="3"/>
+      <c r="AO65" s="3"/>
+      <c r="AP65" s="3"/>
+      <c r="AQ65" s="3"/>
+      <c r="AR65" s="3"/>
+      <c r="AS65" s="1"/>
+      <c r="AT65" s="4"/>
+    </row>
+    <row r="66" spans="1:46">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
+      <c r="K66" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="L66" s="5"/>
-      <c r="M66" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
-      <c r="Q66" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
       <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
+      <c r="W66" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
-      <c r="AA66" s="1"/>
-      <c r="AB66" s="4"/>
-    </row>
-    <row r="67" spans="1:28">
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF66" s="5"/>
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5"/>
+      <c r="AI66" s="5"/>
+      <c r="AJ66" s="5"/>
+      <c r="AK66" s="5"/>
+      <c r="AL66" s="5"/>
+      <c r="AM66" s="5"/>
+      <c r="AN66" s="5"/>
+      <c r="AO66" s="5"/>
+      <c r="AP66" s="5"/>
+      <c r="AQ66" s="5"/>
+      <c r="AR66" s="5"/>
+      <c r="AS66" s="1"/>
+      <c r="AT66" s="4"/>
+    </row>
+    <row r="67" spans="1:46">
       <c r="A67" s="2"/>
       <c r="B67" s="1"/>
       <c r="C67" s="5"/>
@@ -5258,52 +6617,94 @@
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="4"/>
-    </row>
-    <row r="68" spans="1:28">
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5"/>
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="5"/>
+      <c r="AJ67" s="5"/>
+      <c r="AK67" s="5"/>
+      <c r="AL67" s="5"/>
+      <c r="AM67" s="5"/>
+      <c r="AN67" s="5"/>
+      <c r="AO67" s="5"/>
+      <c r="AP67" s="5"/>
+      <c r="AQ67" s="5"/>
+      <c r="AR67" s="5"/>
+      <c r="AS67" s="1"/>
+      <c r="AT67" s="4"/>
+    </row>
+    <row r="68" spans="1:46">
       <c r="A68" s="2"/>
       <c r="B68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D68" s="3"/>
-      <c r="E68" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
+      <c r="I68" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J68" s="3"/>
-      <c r="K68" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
+      <c r="U68" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
-      <c r="AA68" s="1" t="s">
+      <c r="AA68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB68" s="3"/>
+      <c r="AC68" s="3"/>
+      <c r="AD68" s="3"/>
+      <c r="AE68" s="3"/>
+      <c r="AF68" s="3"/>
+      <c r="AG68" s="3"/>
+      <c r="AH68" s="3"/>
+      <c r="AI68" s="3"/>
+      <c r="AJ68" s="3"/>
+      <c r="AK68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL68" s="3"/>
+      <c r="AM68" s="3"/>
+      <c r="AN68" s="3"/>
+      <c r="AO68" s="3"/>
+      <c r="AP68" s="3"/>
+      <c r="AQ68" s="3"/>
+      <c r="AR68" s="3"/>
+      <c r="AS68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AB68" s="4"/>
-    </row>
-    <row r="69" spans="1:28">
+      <c r="AT68" s="4"/>
+    </row>
+    <row r="69" spans="1:46">
       <c r="A69" s="2"/>
       <c r="B69" s="1"/>
       <c r="C69" s="3"/>
@@ -5330,48 +6731,90 @@
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="4"/>
-    </row>
-    <row r="70" spans="1:28">
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
+      <c r="AC69" s="3"/>
+      <c r="AD69" s="3"/>
+      <c r="AE69" s="3"/>
+      <c r="AF69" s="3"/>
+      <c r="AG69" s="3"/>
+      <c r="AH69" s="3"/>
+      <c r="AI69" s="3"/>
+      <c r="AJ69" s="3"/>
+      <c r="AK69" s="3"/>
+      <c r="AL69" s="3"/>
+      <c r="AM69" s="3"/>
+      <c r="AN69" s="3"/>
+      <c r="AO69" s="3"/>
+      <c r="AP69" s="3"/>
+      <c r="AQ69" s="3"/>
+      <c r="AR69" s="3"/>
+      <c r="AS69" s="1"/>
+      <c r="AT69" s="4"/>
+    </row>
+    <row r="70" spans="1:46">
       <c r="A70" s="2"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="5"/>
+      <c r="C70" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="D70" s="5"/>
-      <c r="E70" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
+      <c r="I70" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="J70" s="5"/>
-      <c r="K70" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
       <c r="Q70" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="R70" s="5"/>
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
+      <c r="U70" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="V70" s="5"/>
       <c r="W70" s="5"/>
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
-      <c r="AA70" s="1"/>
-      <c r="AB70" s="4"/>
-    </row>
-    <row r="71" spans="1:28">
+      <c r="AA70" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5"/>
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="5"/>
+      <c r="AI70" s="5"/>
+      <c r="AJ70" s="5"/>
+      <c r="AK70" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL70" s="5"/>
+      <c r="AM70" s="5"/>
+      <c r="AN70" s="5"/>
+      <c r="AO70" s="5"/>
+      <c r="AP70" s="5"/>
+      <c r="AQ70" s="5"/>
+      <c r="AR70" s="5"/>
+      <c r="AS70" s="1"/>
+      <c r="AT70" s="4"/>
+    </row>
+    <row r="71" spans="1:46">
       <c r="A71" s="2"/>
       <c r="B71" s="1"/>
       <c r="C71" s="5"/>
@@ -5398,10 +6841,28 @@
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="4"/>
-    </row>
-    <row r="72" spans="1:28">
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5"/>
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5"/>
+      <c r="AK71" s="5"/>
+      <c r="AL71" s="5"/>
+      <c r="AM71" s="5"/>
+      <c r="AN71" s="5"/>
+      <c r="AO71" s="5"/>
+      <c r="AP71" s="5"/>
+      <c r="AQ71" s="5"/>
+      <c r="AR71" s="5"/>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="4"/>
+    </row>
+    <row r="72" spans="1:46">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
         <v>10</v>
@@ -5430,12 +6891,30 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
-      <c r="AA72" s="1" t="s">
+      <c r="AA72" s="3"/>
+      <c r="AB72" s="3"/>
+      <c r="AC72" s="3"/>
+      <c r="AD72" s="3"/>
+      <c r="AE72" s="3"/>
+      <c r="AF72" s="3"/>
+      <c r="AG72" s="3"/>
+      <c r="AH72" s="3"/>
+      <c r="AI72" s="3"/>
+      <c r="AJ72" s="3"/>
+      <c r="AK72" s="3"/>
+      <c r="AL72" s="3"/>
+      <c r="AM72" s="3"/>
+      <c r="AN72" s="3"/>
+      <c r="AO72" s="3"/>
+      <c r="AP72" s="3"/>
+      <c r="AQ72" s="3"/>
+      <c r="AR72" s="3"/>
+      <c r="AS72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AB72" s="4"/>
-    </row>
-    <row r="73" spans="1:28">
+      <c r="AT72" s="4"/>
+    </row>
+    <row r="73" spans="1:46">
       <c r="A73" s="2"/>
       <c r="B73" s="1"/>
       <c r="C73" s="3"/>
@@ -5462,10 +6941,28 @@
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
-      <c r="AA73" s="1"/>
-      <c r="AB73" s="4"/>
-    </row>
-    <row r="74" spans="1:28">
+      <c r="AA73" s="3"/>
+      <c r="AB73" s="3"/>
+      <c r="AC73" s="3"/>
+      <c r="AD73" s="3"/>
+      <c r="AE73" s="3"/>
+      <c r="AF73" s="3"/>
+      <c r="AG73" s="3"/>
+      <c r="AH73" s="3"/>
+      <c r="AI73" s="3"/>
+      <c r="AJ73" s="3"/>
+      <c r="AK73" s="3"/>
+      <c r="AL73" s="3"/>
+      <c r="AM73" s="3"/>
+      <c r="AN73" s="3"/>
+      <c r="AO73" s="3"/>
+      <c r="AP73" s="3"/>
+      <c r="AQ73" s="3"/>
+      <c r="AR73" s="3"/>
+      <c r="AS73" s="1"/>
+      <c r="AT73" s="4"/>
+    </row>
+    <row r="74" spans="1:46">
       <c r="A74" s="2"/>
       <c r="B74" s="1"/>
       <c r="C74" s="5"/>
@@ -5492,10 +6989,28 @@
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
-      <c r="AA74" s="1"/>
-      <c r="AB74" s="4"/>
-    </row>
-    <row r="75" spans="1:28">
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="5"/>
+      <c r="AG74" s="5"/>
+      <c r="AH74" s="5"/>
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="5"/>
+      <c r="AK74" s="5"/>
+      <c r="AL74" s="5"/>
+      <c r="AM74" s="5"/>
+      <c r="AN74" s="5"/>
+      <c r="AO74" s="5"/>
+      <c r="AP74" s="5"/>
+      <c r="AQ74" s="5"/>
+      <c r="AR74" s="5"/>
+      <c r="AS74" s="1"/>
+      <c r="AT74" s="4"/>
+    </row>
+    <row r="75" spans="1:46">
       <c r="A75" s="2"/>
       <c r="B75" s="1"/>
       <c r="C75" s="5"/>
@@ -5522,10 +7037,28 @@
       <c r="X75" s="5"/>
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
-      <c r="AA75" s="1"/>
-      <c r="AB75" s="4"/>
-    </row>
-    <row r="76" spans="1:28">
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="5"/>
+      <c r="AF75" s="5"/>
+      <c r="AG75" s="5"/>
+      <c r="AH75" s="5"/>
+      <c r="AI75" s="5"/>
+      <c r="AJ75" s="5"/>
+      <c r="AK75" s="5"/>
+      <c r="AL75" s="5"/>
+      <c r="AM75" s="5"/>
+      <c r="AN75" s="5"/>
+      <c r="AO75" s="5"/>
+      <c r="AP75" s="5"/>
+      <c r="AQ75" s="5"/>
+      <c r="AR75" s="5"/>
+      <c r="AS75" s="1"/>
+      <c r="AT75" s="4"/>
+    </row>
+    <row r="76" spans="1:46">
       <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
         <v>11</v>
@@ -5554,12 +7087,30 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
-      <c r="AA76" s="1" t="s">
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="3"/>
+      <c r="AC76" s="3"/>
+      <c r="AD76" s="3"/>
+      <c r="AE76" s="3"/>
+      <c r="AF76" s="3"/>
+      <c r="AG76" s="3"/>
+      <c r="AH76" s="3"/>
+      <c r="AI76" s="3"/>
+      <c r="AJ76" s="3"/>
+      <c r="AK76" s="3"/>
+      <c r="AL76" s="3"/>
+      <c r="AM76" s="3"/>
+      <c r="AN76" s="3"/>
+      <c r="AO76" s="3"/>
+      <c r="AP76" s="3"/>
+      <c r="AQ76" s="3"/>
+      <c r="AR76" s="3"/>
+      <c r="AS76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AB76" s="4"/>
-    </row>
-    <row r="77" spans="1:28">
+      <c r="AT76" s="4"/>
+    </row>
+    <row r="77" spans="1:46">
       <c r="A77" s="2"/>
       <c r="B77" s="1"/>
       <c r="C77" s="3"/>
@@ -5586,10 +7137,28 @@
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
-      <c r="AA77" s="1"/>
-      <c r="AB77" s="4"/>
-    </row>
-    <row r="78" spans="1:28">
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="3"/>
+      <c r="AC77" s="3"/>
+      <c r="AD77" s="3"/>
+      <c r="AE77" s="3"/>
+      <c r="AF77" s="3"/>
+      <c r="AG77" s="3"/>
+      <c r="AH77" s="3"/>
+      <c r="AI77" s="3"/>
+      <c r="AJ77" s="3"/>
+      <c r="AK77" s="3"/>
+      <c r="AL77" s="3"/>
+      <c r="AM77" s="3"/>
+      <c r="AN77" s="3"/>
+      <c r="AO77" s="3"/>
+      <c r="AP77" s="3"/>
+      <c r="AQ77" s="3"/>
+      <c r="AR77" s="3"/>
+      <c r="AS77" s="1"/>
+      <c r="AT77" s="4"/>
+    </row>
+    <row r="78" spans="1:46">
       <c r="A78" s="2"/>
       <c r="B78" s="1"/>
       <c r="C78" s="5"/>
@@ -5616,10 +7185,28 @@
       <c r="X78" s="5"/>
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
-      <c r="AA78" s="1"/>
-      <c r="AB78" s="4"/>
-    </row>
-    <row r="79" spans="1:28">
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="5"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
+      <c r="AE78" s="5"/>
+      <c r="AF78" s="5"/>
+      <c r="AG78" s="5"/>
+      <c r="AH78" s="5"/>
+      <c r="AI78" s="5"/>
+      <c r="AJ78" s="5"/>
+      <c r="AK78" s="5"/>
+      <c r="AL78" s="5"/>
+      <c r="AM78" s="5"/>
+      <c r="AN78" s="5"/>
+      <c r="AO78" s="5"/>
+      <c r="AP78" s="5"/>
+      <c r="AQ78" s="5"/>
+      <c r="AR78" s="5"/>
+      <c r="AS78" s="1"/>
+      <c r="AT78" s="4"/>
+    </row>
+    <row r="79" spans="1:46">
       <c r="A79" s="2"/>
       <c r="B79" s="1"/>
       <c r="C79" s="5"/>
@@ -5646,10 +7233,28 @@
       <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
-      <c r="AA79" s="1"/>
-      <c r="AB79" s="4"/>
-    </row>
-    <row r="80" spans="1:28">
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="5"/>
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="5"/>
+      <c r="AE79" s="5"/>
+      <c r="AF79" s="5"/>
+      <c r="AG79" s="5"/>
+      <c r="AH79" s="5"/>
+      <c r="AI79" s="5"/>
+      <c r="AJ79" s="5"/>
+      <c r="AK79" s="5"/>
+      <c r="AL79" s="5"/>
+      <c r="AM79" s="5"/>
+      <c r="AN79" s="5"/>
+      <c r="AO79" s="5"/>
+      <c r="AP79" s="5"/>
+      <c r="AQ79" s="5"/>
+      <c r="AR79" s="5"/>
+      <c r="AS79" s="1"/>
+      <c r="AT79" s="4"/>
+    </row>
+    <row r="80" spans="1:46">
       <c r="A80" s="2" t="s">
         <v>6</v>
       </c>
@@ -5658,7 +7263,9 @@
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3" t="s">
         <v>21</v>
@@ -5670,30 +7277,48 @@
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
-      <c r="O80" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="O80" s="3"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
-      <c r="U80" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
-      <c r="AA80" s="1" t="s">
+      <c r="AA80" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB80" s="3"/>
+      <c r="AC80" s="3"/>
+      <c r="AD80" s="3"/>
+      <c r="AE80" s="3"/>
+      <c r="AF80" s="3"/>
+      <c r="AG80" s="3"/>
+      <c r="AH80" s="3"/>
+      <c r="AI80" s="3"/>
+      <c r="AJ80" s="3"/>
+      <c r="AK80" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL80" s="3"/>
+      <c r="AM80" s="3"/>
+      <c r="AN80" s="3"/>
+      <c r="AO80" s="3"/>
+      <c r="AP80" s="3"/>
+      <c r="AQ80" s="3"/>
+      <c r="AR80" s="3"/>
+      <c r="AS80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AB80" s="4" t="s">
+      <c r="AT80" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:28">
+    <row r="81" spans="1:46">
       <c r="A81" s="2"/>
       <c r="B81" s="1"/>
       <c r="C81" s="3"/>
@@ -5720,18 +7345,38 @@
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="4"/>
-    </row>
-    <row r="82" spans="1:28">
+      <c r="AA81" s="3"/>
+      <c r="AB81" s="3"/>
+      <c r="AC81" s="3"/>
+      <c r="AD81" s="3"/>
+      <c r="AE81" s="3"/>
+      <c r="AF81" s="3"/>
+      <c r="AG81" s="3"/>
+      <c r="AH81" s="3"/>
+      <c r="AI81" s="3"/>
+      <c r="AJ81" s="3"/>
+      <c r="AK81" s="3"/>
+      <c r="AL81" s="3"/>
+      <c r="AM81" s="3"/>
+      <c r="AN81" s="3"/>
+      <c r="AO81" s="3"/>
+      <c r="AP81" s="3"/>
+      <c r="AQ81" s="3"/>
+      <c r="AR81" s="3"/>
+      <c r="AS81" s="1"/>
+      <c r="AT81" s="4"/>
+    </row>
+    <row r="82" spans="1:46">
       <c r="A82" s="2"/>
       <c r="B82" s="1"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
+      <c r="E82" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="F82" s="5"/>
       <c r="G82" s="5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
@@ -5740,26 +7385,44 @@
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
-      <c r="O82" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="O82" s="5"/>
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
-      <c r="U82" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="U82" s="5"/>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
-      <c r="AA82" s="1"/>
-      <c r="AB82" s="4"/>
-    </row>
-    <row r="83" spans="1:28">
+      <c r="AA82" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB82" s="5"/>
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="5"/>
+      <c r="AE82" s="5"/>
+      <c r="AF82" s="5"/>
+      <c r="AG82" s="5"/>
+      <c r="AH82" s="5"/>
+      <c r="AI82" s="5"/>
+      <c r="AJ82" s="5"/>
+      <c r="AK82" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL82" s="5"/>
+      <c r="AM82" s="5"/>
+      <c r="AN82" s="5"/>
+      <c r="AO82" s="5"/>
+      <c r="AP82" s="5"/>
+      <c r="AQ82" s="5"/>
+      <c r="AR82" s="5"/>
+      <c r="AS82" s="1"/>
+      <c r="AT82" s="4"/>
+    </row>
+    <row r="83" spans="1:46">
       <c r="A83" s="2"/>
       <c r="B83" s="1"/>
       <c r="C83" s="5"/>
@@ -5786,15 +7449,35 @@
       <c r="X83" s="5"/>
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
-      <c r="AA83" s="1"/>
-      <c r="AB83" s="4"/>
-    </row>
-    <row r="84" spans="1:28">
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="5"/>
+      <c r="AG83" s="5"/>
+      <c r="AH83" s="5"/>
+      <c r="AI83" s="5"/>
+      <c r="AJ83" s="5"/>
+      <c r="AK83" s="5"/>
+      <c r="AL83" s="5"/>
+      <c r="AM83" s="5"/>
+      <c r="AN83" s="5"/>
+      <c r="AO83" s="5"/>
+      <c r="AP83" s="5"/>
+      <c r="AQ83" s="5"/>
+      <c r="AR83" s="5"/>
+      <c r="AS83" s="1"/>
+      <c r="AT83" s="4"/>
+    </row>
+    <row r="84" spans="1:46">
       <c r="A84" s="2"/>
       <c r="B84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -5802,7 +7485,9 @@
         <v>21</v>
       </c>
       <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
+      <c r="I84" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
@@ -5810,26 +7495,46 @@
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
+      <c r="Q84" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="X84" s="3"/>
       <c r="Y84" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="Z84" s="3"/>
-      <c r="AA84" s="1" t="s">
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
+      <c r="AC84" s="3"/>
+      <c r="AD84" s="3"/>
+      <c r="AE84" s="3"/>
+      <c r="AF84" s="3"/>
+      <c r="AG84" s="3"/>
+      <c r="AH84" s="3"/>
+      <c r="AI84" s="3"/>
+      <c r="AJ84" s="3"/>
+      <c r="AK84" s="3"/>
+      <c r="AL84" s="3"/>
+      <c r="AM84" s="3"/>
+      <c r="AN84" s="3"/>
+      <c r="AO84" s="3"/>
+      <c r="AP84" s="3"/>
+      <c r="AQ84" s="3"/>
+      <c r="AR84" s="3"/>
+      <c r="AS84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AB84" s="4"/>
-    </row>
-    <row r="85" spans="1:28">
+      <c r="AT84" s="4"/>
+    </row>
+    <row r="85" spans="1:46">
       <c r="A85" s="2"/>
       <c r="B85" s="1"/>
       <c r="C85" s="3"/>
@@ -5856,21 +7561,43 @@
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
-      <c r="AA85" s="1"/>
-      <c r="AB85" s="4"/>
-    </row>
-    <row r="86" spans="1:28">
+      <c r="AA85" s="3"/>
+      <c r="AB85" s="3"/>
+      <c r="AC85" s="3"/>
+      <c r="AD85" s="3"/>
+      <c r="AE85" s="3"/>
+      <c r="AF85" s="3"/>
+      <c r="AG85" s="3"/>
+      <c r="AH85" s="3"/>
+      <c r="AI85" s="3"/>
+      <c r="AJ85" s="3"/>
+      <c r="AK85" s="3"/>
+      <c r="AL85" s="3"/>
+      <c r="AM85" s="3"/>
+      <c r="AN85" s="3"/>
+      <c r="AO85" s="3"/>
+      <c r="AP85" s="3"/>
+      <c r="AQ85" s="3"/>
+      <c r="AR85" s="3"/>
+      <c r="AS85" s="1"/>
+      <c r="AT85" s="4"/>
+    </row>
+    <row r="86" spans="1:46">
       <c r="A86" s="2"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="5"/>
+      <c r="C86" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
+      <c r="I86" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
@@ -5878,24 +7605,44 @@
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
+      <c r="Q86" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="R86" s="5"/>
       <c r="S86" s="5"/>
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="5"/>
       <c r="W86" s="5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="X86" s="5"/>
       <c r="Y86" s="5" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="Z86" s="5"/>
-      <c r="AA86" s="1"/>
-      <c r="AB86" s="4"/>
-    </row>
-    <row r="87" spans="1:28">
+      <c r="AA86" s="5"/>
+      <c r="AB86" s="5"/>
+      <c r="AC86" s="5"/>
+      <c r="AD86" s="5"/>
+      <c r="AE86" s="5"/>
+      <c r="AF86" s="5"/>
+      <c r="AG86" s="5"/>
+      <c r="AH86" s="5"/>
+      <c r="AI86" s="5"/>
+      <c r="AJ86" s="5"/>
+      <c r="AK86" s="5"/>
+      <c r="AL86" s="5"/>
+      <c r="AM86" s="5"/>
+      <c r="AN86" s="5"/>
+      <c r="AO86" s="5"/>
+      <c r="AP86" s="5"/>
+      <c r="AQ86" s="5"/>
+      <c r="AR86" s="5"/>
+      <c r="AS86" s="1"/>
+      <c r="AT86" s="4"/>
+    </row>
+    <row r="87" spans="1:46">
       <c r="A87" s="2"/>
       <c r="B87" s="1"/>
       <c r="C87" s="5"/>
@@ -5922,10 +7669,28 @@
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
-      <c r="AA87" s="1"/>
-      <c r="AB87" s="4"/>
-    </row>
-    <row r="88" spans="1:28">
+      <c r="AA87" s="5"/>
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="5"/>
+      <c r="AE87" s="5"/>
+      <c r="AF87" s="5"/>
+      <c r="AG87" s="5"/>
+      <c r="AH87" s="5"/>
+      <c r="AI87" s="5"/>
+      <c r="AJ87" s="5"/>
+      <c r="AK87" s="5"/>
+      <c r="AL87" s="5"/>
+      <c r="AM87" s="5"/>
+      <c r="AN87" s="5"/>
+      <c r="AO87" s="5"/>
+      <c r="AP87" s="5"/>
+      <c r="AQ87" s="5"/>
+      <c r="AR87" s="5"/>
+      <c r="AS87" s="1"/>
+      <c r="AT87" s="4"/>
+    </row>
+    <row r="88" spans="1:46">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
         <v>10</v>
@@ -5954,12 +7719,30 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
-      <c r="AA88" s="1" t="s">
+      <c r="AA88" s="3"/>
+      <c r="AB88" s="3"/>
+      <c r="AC88" s="3"/>
+      <c r="AD88" s="3"/>
+      <c r="AE88" s="3"/>
+      <c r="AF88" s="3"/>
+      <c r="AG88" s="3"/>
+      <c r="AH88" s="3"/>
+      <c r="AI88" s="3"/>
+      <c r="AJ88" s="3"/>
+      <c r="AK88" s="3"/>
+      <c r="AL88" s="3"/>
+      <c r="AM88" s="3"/>
+      <c r="AN88" s="3"/>
+      <c r="AO88" s="3"/>
+      <c r="AP88" s="3"/>
+      <c r="AQ88" s="3"/>
+      <c r="AR88" s="3"/>
+      <c r="AS88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AB88" s="4"/>
-    </row>
-    <row r="89" spans="1:28">
+      <c r="AT88" s="4"/>
+    </row>
+    <row r="89" spans="1:46">
       <c r="A89" s="2"/>
       <c r="B89" s="1"/>
       <c r="C89" s="3"/>
@@ -5986,10 +7769,28 @@
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
-      <c r="AA89" s="1"/>
-      <c r="AB89" s="4"/>
-    </row>
-    <row r="90" spans="1:28">
+      <c r="AA89" s="3"/>
+      <c r="AB89" s="3"/>
+      <c r="AC89" s="3"/>
+      <c r="AD89" s="3"/>
+      <c r="AE89" s="3"/>
+      <c r="AF89" s="3"/>
+      <c r="AG89" s="3"/>
+      <c r="AH89" s="3"/>
+      <c r="AI89" s="3"/>
+      <c r="AJ89" s="3"/>
+      <c r="AK89" s="3"/>
+      <c r="AL89" s="3"/>
+      <c r="AM89" s="3"/>
+      <c r="AN89" s="3"/>
+      <c r="AO89" s="3"/>
+      <c r="AP89" s="3"/>
+      <c r="AQ89" s="3"/>
+      <c r="AR89" s="3"/>
+      <c r="AS89" s="1"/>
+      <c r="AT89" s="4"/>
+    </row>
+    <row r="90" spans="1:46">
       <c r="A90" s="2"/>
       <c r="B90" s="1"/>
       <c r="C90" s="5"/>
@@ -6016,10 +7817,28 @@
       <c r="X90" s="5"/>
       <c r="Y90" s="5"/>
       <c r="Z90" s="5"/>
-      <c r="AA90" s="1"/>
-      <c r="AB90" s="4"/>
-    </row>
-    <row r="91" spans="1:28">
+      <c r="AA90" s="5"/>
+      <c r="AB90" s="5"/>
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="5"/>
+      <c r="AE90" s="5"/>
+      <c r="AF90" s="5"/>
+      <c r="AG90" s="5"/>
+      <c r="AH90" s="5"/>
+      <c r="AI90" s="5"/>
+      <c r="AJ90" s="5"/>
+      <c r="AK90" s="5"/>
+      <c r="AL90" s="5"/>
+      <c r="AM90" s="5"/>
+      <c r="AN90" s="5"/>
+      <c r="AO90" s="5"/>
+      <c r="AP90" s="5"/>
+      <c r="AQ90" s="5"/>
+      <c r="AR90" s="5"/>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="4"/>
+    </row>
+    <row r="91" spans="1:46">
       <c r="A91" s="2"/>
       <c r="B91" s="1"/>
       <c r="C91" s="5"/>
@@ -6046,10 +7865,28 @@
       <c r="X91" s="5"/>
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
-      <c r="AA91" s="1"/>
-      <c r="AB91" s="4"/>
-    </row>
-    <row r="92" spans="1:28">
+      <c r="AA91" s="5"/>
+      <c r="AB91" s="5"/>
+      <c r="AC91" s="5"/>
+      <c r="AD91" s="5"/>
+      <c r="AE91" s="5"/>
+      <c r="AF91" s="5"/>
+      <c r="AG91" s="5"/>
+      <c r="AH91" s="5"/>
+      <c r="AI91" s="5"/>
+      <c r="AJ91" s="5"/>
+      <c r="AK91" s="5"/>
+      <c r="AL91" s="5"/>
+      <c r="AM91" s="5"/>
+      <c r="AN91" s="5"/>
+      <c r="AO91" s="5"/>
+      <c r="AP91" s="5"/>
+      <c r="AQ91" s="5"/>
+      <c r="AR91" s="5"/>
+      <c r="AS91" s="1"/>
+      <c r="AT91" s="4"/>
+    </row>
+    <row r="92" spans="1:46">
       <c r="A92" s="2"/>
       <c r="B92" s="1" t="s">
         <v>11</v>
@@ -6078,12 +7915,30 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
-      <c r="AA92" s="1" t="s">
+      <c r="AA92" s="3"/>
+      <c r="AB92" s="3"/>
+      <c r="AC92" s="3"/>
+      <c r="AD92" s="3"/>
+      <c r="AE92" s="3"/>
+      <c r="AF92" s="3"/>
+      <c r="AG92" s="3"/>
+      <c r="AH92" s="3"/>
+      <c r="AI92" s="3"/>
+      <c r="AJ92" s="3"/>
+      <c r="AK92" s="3"/>
+      <c r="AL92" s="3"/>
+      <c r="AM92" s="3"/>
+      <c r="AN92" s="3"/>
+      <c r="AO92" s="3"/>
+      <c r="AP92" s="3"/>
+      <c r="AQ92" s="3"/>
+      <c r="AR92" s="3"/>
+      <c r="AS92" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AB92" s="4"/>
-    </row>
-    <row r="93" spans="1:28">
+      <c r="AT92" s="4"/>
+    </row>
+    <row r="93" spans="1:46">
       <c r="A93" s="2"/>
       <c r="B93" s="1"/>
       <c r="C93" s="3"/>
@@ -6110,10 +7965,28 @@
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
-      <c r="AA93" s="1"/>
-      <c r="AB93" s="4"/>
-    </row>
-    <row r="94" spans="1:28">
+      <c r="AA93" s="3"/>
+      <c r="AB93" s="3"/>
+      <c r="AC93" s="3"/>
+      <c r="AD93" s="3"/>
+      <c r="AE93" s="3"/>
+      <c r="AF93" s="3"/>
+      <c r="AG93" s="3"/>
+      <c r="AH93" s="3"/>
+      <c r="AI93" s="3"/>
+      <c r="AJ93" s="3"/>
+      <c r="AK93" s="3"/>
+      <c r="AL93" s="3"/>
+      <c r="AM93" s="3"/>
+      <c r="AN93" s="3"/>
+      <c r="AO93" s="3"/>
+      <c r="AP93" s="3"/>
+      <c r="AQ93" s="3"/>
+      <c r="AR93" s="3"/>
+      <c r="AS93" s="1"/>
+      <c r="AT93" s="4"/>
+    </row>
+    <row r="94" spans="1:46">
       <c r="A94" s="2"/>
       <c r="B94" s="1"/>
       <c r="C94" s="5"/>
@@ -6140,10 +8013,28 @@
       <c r="X94" s="5"/>
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
-      <c r="AA94" s="1"/>
-      <c r="AB94" s="4"/>
-    </row>
-    <row r="95" spans="1:28">
+      <c r="AA94" s="5"/>
+      <c r="AB94" s="5"/>
+      <c r="AC94" s="5"/>
+      <c r="AD94" s="5"/>
+      <c r="AE94" s="5"/>
+      <c r="AF94" s="5"/>
+      <c r="AG94" s="5"/>
+      <c r="AH94" s="5"/>
+      <c r="AI94" s="5"/>
+      <c r="AJ94" s="5"/>
+      <c r="AK94" s="5"/>
+      <c r="AL94" s="5"/>
+      <c r="AM94" s="5"/>
+      <c r="AN94" s="5"/>
+      <c r="AO94" s="5"/>
+      <c r="AP94" s="5"/>
+      <c r="AQ94" s="5"/>
+      <c r="AR94" s="5"/>
+      <c r="AS94" s="1"/>
+      <c r="AT94" s="4"/>
+    </row>
+    <row r="95" spans="1:46">
       <c r="A95" s="2"/>
       <c r="B95" s="1"/>
       <c r="C95" s="5"/>
@@ -6170,10 +8061,28 @@
       <c r="X95" s="5"/>
       <c r="Y95" s="5"/>
       <c r="Z95" s="5"/>
-      <c r="AA95" s="1"/>
-      <c r="AB95" s="4"/>
-    </row>
-    <row r="96" spans="1:28">
+      <c r="AA95" s="5"/>
+      <c r="AB95" s="5"/>
+      <c r="AC95" s="5"/>
+      <c r="AD95" s="5"/>
+      <c r="AE95" s="5"/>
+      <c r="AF95" s="5"/>
+      <c r="AG95" s="5"/>
+      <c r="AH95" s="5"/>
+      <c r="AI95" s="5"/>
+      <c r="AJ95" s="5"/>
+      <c r="AK95" s="5"/>
+      <c r="AL95" s="5"/>
+      <c r="AM95" s="5"/>
+      <c r="AN95" s="5"/>
+      <c r="AO95" s="5"/>
+      <c r="AP95" s="5"/>
+      <c r="AQ95" s="5"/>
+      <c r="AR95" s="5"/>
+      <c r="AS95" s="1"/>
+      <c r="AT95" s="4"/>
+    </row>
+    <row r="96" spans="1:46">
       <c r="A96" s="2" t="s">
         <v>7</v>
       </c>
@@ -6198,26 +8107,44 @@
       <c r="R96" s="3"/>
       <c r="S96" s="3"/>
       <c r="T96" s="3"/>
-      <c r="U96" s="3" t="s">
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+      <c r="AA96" s="3"/>
+      <c r="AB96" s="3"/>
+      <c r="AC96" s="3"/>
+      <c r="AD96" s="3"/>
+      <c r="AE96" s="3"/>
+      <c r="AF96" s="3"/>
+      <c r="AG96" s="3"/>
+      <c r="AH96" s="3"/>
+      <c r="AI96" s="3"/>
+      <c r="AJ96" s="3"/>
+      <c r="AK96" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V96" s="3"/>
-      <c r="W96" s="3" t="s">
+      <c r="AL96" s="3"/>
+      <c r="AM96" s="3"/>
+      <c r="AN96" s="3"/>
+      <c r="AO96" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="X96" s="3"/>
-      <c r="Y96" s="3" t="s">
+      <c r="AP96" s="3"/>
+      <c r="AQ96" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z96" s="3"/>
-      <c r="AA96" s="1" t="s">
+      <c r="AR96" s="3"/>
+      <c r="AS96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AB96" s="4" t="s">
+      <c r="AT96" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:28">
+    <row r="97" spans="1:46">
       <c r="A97" s="2"/>
       <c r="B97" s="1"/>
       <c r="C97" s="3"/>
@@ -6244,10 +8171,28 @@
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
-      <c r="AA97" s="1"/>
-      <c r="AB97" s="4"/>
-    </row>
-    <row r="98" spans="1:28">
+      <c r="AA97" s="3"/>
+      <c r="AB97" s="3"/>
+      <c r="AC97" s="3"/>
+      <c r="AD97" s="3"/>
+      <c r="AE97" s="3"/>
+      <c r="AF97" s="3"/>
+      <c r="AG97" s="3"/>
+      <c r="AH97" s="3"/>
+      <c r="AI97" s="3"/>
+      <c r="AJ97" s="3"/>
+      <c r="AK97" s="3"/>
+      <c r="AL97" s="3"/>
+      <c r="AM97" s="3"/>
+      <c r="AN97" s="3"/>
+      <c r="AO97" s="3"/>
+      <c r="AP97" s="3"/>
+      <c r="AQ97" s="3"/>
+      <c r="AR97" s="3"/>
+      <c r="AS97" s="1"/>
+      <c r="AT97" s="4"/>
+    </row>
+    <row r="98" spans="1:46">
       <c r="A98" s="2"/>
       <c r="B98" s="1"/>
       <c r="C98" s="5"/>
@@ -6268,22 +8213,40 @@
       <c r="R98" s="5"/>
       <c r="S98" s="5"/>
       <c r="T98" s="5"/>
-      <c r="U98" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="U98" s="5"/>
       <c r="V98" s="5"/>
-      <c r="W98" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="W98" s="5"/>
       <c r="X98" s="5"/>
-      <c r="Y98" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
-      <c r="AA98" s="1"/>
-      <c r="AB98" s="4"/>
-    </row>
-    <row r="99" spans="1:28">
+      <c r="AA98" s="5"/>
+      <c r="AB98" s="5"/>
+      <c r="AC98" s="5"/>
+      <c r="AD98" s="5"/>
+      <c r="AE98" s="5"/>
+      <c r="AF98" s="5"/>
+      <c r="AG98" s="5"/>
+      <c r="AH98" s="5"/>
+      <c r="AI98" s="5"/>
+      <c r="AJ98" s="5"/>
+      <c r="AK98" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL98" s="5"/>
+      <c r="AM98" s="5"/>
+      <c r="AN98" s="5"/>
+      <c r="AO98" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP98" s="5"/>
+      <c r="AQ98" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR98" s="5"/>
+      <c r="AS98" s="1"/>
+      <c r="AT98" s="4"/>
+    </row>
+    <row r="99" spans="1:46">
       <c r="A99" s="2"/>
       <c r="B99" s="1"/>
       <c r="C99" s="5"/>
@@ -6310,15 +8273,35 @@
       <c r="X99" s="5"/>
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
-      <c r="AA99" s="1"/>
-      <c r="AB99" s="4"/>
-    </row>
-    <row r="100" spans="1:28">
+      <c r="AA99" s="5"/>
+      <c r="AB99" s="5"/>
+      <c r="AC99" s="5"/>
+      <c r="AD99" s="5"/>
+      <c r="AE99" s="5"/>
+      <c r="AF99" s="5"/>
+      <c r="AG99" s="5"/>
+      <c r="AH99" s="5"/>
+      <c r="AI99" s="5"/>
+      <c r="AJ99" s="5"/>
+      <c r="AK99" s="5"/>
+      <c r="AL99" s="5"/>
+      <c r="AM99" s="5"/>
+      <c r="AN99" s="5"/>
+      <c r="AO99" s="5"/>
+      <c r="AP99" s="5"/>
+      <c r="AQ99" s="5"/>
+      <c r="AR99" s="5"/>
+      <c r="AS99" s="1"/>
+      <c r="AT99" s="4"/>
+    </row>
+    <row r="100" spans="1:46">
       <c r="A100" s="2"/>
       <c r="B100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="3"/>
+      <c r="C100" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -6326,7 +8309,9 @@
         <v>21</v>
       </c>
       <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
+      <c r="I100" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
@@ -6334,24 +8319,46 @@
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
+      <c r="Q100" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="R100" s="3"/>
       <c r="S100" s="3"/>
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
-      <c r="W100" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="W100" s="3"/>
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
-      <c r="AA100" s="1" t="s">
+      <c r="AA100" s="3"/>
+      <c r="AB100" s="3"/>
+      <c r="AC100" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD100" s="3"/>
+      <c r="AE100" s="3"/>
+      <c r="AF100" s="3"/>
+      <c r="AG100" s="3"/>
+      <c r="AH100" s="3"/>
+      <c r="AI100" s="3"/>
+      <c r="AJ100" s="3"/>
+      <c r="AK100" s="3"/>
+      <c r="AL100" s="3"/>
+      <c r="AM100" s="3"/>
+      <c r="AN100" s="3"/>
+      <c r="AO100" s="3"/>
+      <c r="AP100" s="3"/>
+      <c r="AQ100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR100" s="3"/>
+      <c r="AS100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AB100" s="4"/>
-    </row>
-    <row r="101" spans="1:28">
+      <c r="AT100" s="4"/>
+    </row>
+    <row r="101" spans="1:46">
       <c r="A101" s="2"/>
       <c r="B101" s="1"/>
       <c r="C101" s="3"/>
@@ -6378,21 +8385,43 @@
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
-      <c r="AA101" s="1"/>
-      <c r="AB101" s="4"/>
-    </row>
-    <row r="102" spans="1:28">
+      <c r="AA101" s="3"/>
+      <c r="AB101" s="3"/>
+      <c r="AC101" s="3"/>
+      <c r="AD101" s="3"/>
+      <c r="AE101" s="3"/>
+      <c r="AF101" s="3"/>
+      <c r="AG101" s="3"/>
+      <c r="AH101" s="3"/>
+      <c r="AI101" s="3"/>
+      <c r="AJ101" s="3"/>
+      <c r="AK101" s="3"/>
+      <c r="AL101" s="3"/>
+      <c r="AM101" s="3"/>
+      <c r="AN101" s="3"/>
+      <c r="AO101" s="3"/>
+      <c r="AP101" s="3"/>
+      <c r="AQ101" s="3"/>
+      <c r="AR101" s="3"/>
+      <c r="AS101" s="1"/>
+      <c r="AT101" s="4"/>
+    </row>
+    <row r="102" spans="1:46">
       <c r="A102" s="2"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="5"/>
+      <c r="C102" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
+      <c r="I102" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
@@ -6400,22 +8429,44 @@
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="5"/>
-      <c r="Q102" s="5"/>
+      <c r="Q102" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="R102" s="5"/>
       <c r="S102" s="5"/>
       <c r="T102" s="5"/>
       <c r="U102" s="5"/>
       <c r="V102" s="5"/>
-      <c r="W102" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="W102" s="5"/>
       <c r="X102" s="5"/>
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
-      <c r="AA102" s="1"/>
-      <c r="AB102" s="4"/>
-    </row>
-    <row r="103" spans="1:28">
+      <c r="AA102" s="5"/>
+      <c r="AB102" s="5"/>
+      <c r="AC102" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD102" s="5"/>
+      <c r="AE102" s="5"/>
+      <c r="AF102" s="5"/>
+      <c r="AG102" s="5"/>
+      <c r="AH102" s="5"/>
+      <c r="AI102" s="5"/>
+      <c r="AJ102" s="5"/>
+      <c r="AK102" s="5"/>
+      <c r="AL102" s="5"/>
+      <c r="AM102" s="5"/>
+      <c r="AN102" s="5"/>
+      <c r="AO102" s="5"/>
+      <c r="AP102" s="5"/>
+      <c r="AQ102" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR102" s="5"/>
+      <c r="AS102" s="1"/>
+      <c r="AT102" s="4"/>
+    </row>
+    <row r="103" spans="1:46">
       <c r="A103" s="2"/>
       <c r="B103" s="1"/>
       <c r="C103" s="5"/>
@@ -6442,10 +8493,28 @@
       <c r="X103" s="5"/>
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
-      <c r="AA103" s="1"/>
-      <c r="AB103" s="4"/>
-    </row>
-    <row r="104" spans="1:28">
+      <c r="AA103" s="5"/>
+      <c r="AB103" s="5"/>
+      <c r="AC103" s="5"/>
+      <c r="AD103" s="5"/>
+      <c r="AE103" s="5"/>
+      <c r="AF103" s="5"/>
+      <c r="AG103" s="5"/>
+      <c r="AH103" s="5"/>
+      <c r="AI103" s="5"/>
+      <c r="AJ103" s="5"/>
+      <c r="AK103" s="5"/>
+      <c r="AL103" s="5"/>
+      <c r="AM103" s="5"/>
+      <c r="AN103" s="5"/>
+      <c r="AO103" s="5"/>
+      <c r="AP103" s="5"/>
+      <c r="AQ103" s="5"/>
+      <c r="AR103" s="5"/>
+      <c r="AS103" s="1"/>
+      <c r="AT103" s="4"/>
+    </row>
+    <row r="104" spans="1:46">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>10</v>
@@ -6474,12 +8543,30 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
-      <c r="AA104" s="1" t="s">
+      <c r="AA104" s="3"/>
+      <c r="AB104" s="3"/>
+      <c r="AC104" s="3"/>
+      <c r="AD104" s="3"/>
+      <c r="AE104" s="3"/>
+      <c r="AF104" s="3"/>
+      <c r="AG104" s="3"/>
+      <c r="AH104" s="3"/>
+      <c r="AI104" s="3"/>
+      <c r="AJ104" s="3"/>
+      <c r="AK104" s="3"/>
+      <c r="AL104" s="3"/>
+      <c r="AM104" s="3"/>
+      <c r="AN104" s="3"/>
+      <c r="AO104" s="3"/>
+      <c r="AP104" s="3"/>
+      <c r="AQ104" s="3"/>
+      <c r="AR104" s="3"/>
+      <c r="AS104" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AB104" s="4"/>
-    </row>
-    <row r="105" spans="1:28">
+      <c r="AT104" s="4"/>
+    </row>
+    <row r="105" spans="1:46">
       <c r="A105" s="2"/>
       <c r="B105" s="1"/>
       <c r="C105" s="3"/>
@@ -6506,10 +8593,28 @@
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
-      <c r="AA105" s="1"/>
-      <c r="AB105" s="4"/>
-    </row>
-    <row r="106" spans="1:28">
+      <c r="AA105" s="3"/>
+      <c r="AB105" s="3"/>
+      <c r="AC105" s="3"/>
+      <c r="AD105" s="3"/>
+      <c r="AE105" s="3"/>
+      <c r="AF105" s="3"/>
+      <c r="AG105" s="3"/>
+      <c r="AH105" s="3"/>
+      <c r="AI105" s="3"/>
+      <c r="AJ105" s="3"/>
+      <c r="AK105" s="3"/>
+      <c r="AL105" s="3"/>
+      <c r="AM105" s="3"/>
+      <c r="AN105" s="3"/>
+      <c r="AO105" s="3"/>
+      <c r="AP105" s="3"/>
+      <c r="AQ105" s="3"/>
+      <c r="AR105" s="3"/>
+      <c r="AS105" s="1"/>
+      <c r="AT105" s="4"/>
+    </row>
+    <row r="106" spans="1:46">
       <c r="A106" s="2"/>
       <c r="B106" s="1"/>
       <c r="C106" s="5"/>
@@ -6536,10 +8641,28 @@
       <c r="X106" s="5"/>
       <c r="Y106" s="5"/>
       <c r="Z106" s="5"/>
-      <c r="AA106" s="1"/>
-      <c r="AB106" s="4"/>
-    </row>
-    <row r="107" spans="1:28">
+      <c r="AA106" s="5"/>
+      <c r="AB106" s="5"/>
+      <c r="AC106" s="5"/>
+      <c r="AD106" s="5"/>
+      <c r="AE106" s="5"/>
+      <c r="AF106" s="5"/>
+      <c r="AG106" s="5"/>
+      <c r="AH106" s="5"/>
+      <c r="AI106" s="5"/>
+      <c r="AJ106" s="5"/>
+      <c r="AK106" s="5"/>
+      <c r="AL106" s="5"/>
+      <c r="AM106" s="5"/>
+      <c r="AN106" s="5"/>
+      <c r="AO106" s="5"/>
+      <c r="AP106" s="5"/>
+      <c r="AQ106" s="5"/>
+      <c r="AR106" s="5"/>
+      <c r="AS106" s="1"/>
+      <c r="AT106" s="4"/>
+    </row>
+    <row r="107" spans="1:46">
       <c r="A107" s="2"/>
       <c r="B107" s="1"/>
       <c r="C107" s="5"/>
@@ -6566,10 +8689,28 @@
       <c r="X107" s="5"/>
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
-      <c r="AA107" s="1"/>
-      <c r="AB107" s="4"/>
-    </row>
-    <row r="108" spans="1:28">
+      <c r="AA107" s="5"/>
+      <c r="AB107" s="5"/>
+      <c r="AC107" s="5"/>
+      <c r="AD107" s="5"/>
+      <c r="AE107" s="5"/>
+      <c r="AF107" s="5"/>
+      <c r="AG107" s="5"/>
+      <c r="AH107" s="5"/>
+      <c r="AI107" s="5"/>
+      <c r="AJ107" s="5"/>
+      <c r="AK107" s="5"/>
+      <c r="AL107" s="5"/>
+      <c r="AM107" s="5"/>
+      <c r="AN107" s="5"/>
+      <c r="AO107" s="5"/>
+      <c r="AP107" s="5"/>
+      <c r="AQ107" s="5"/>
+      <c r="AR107" s="5"/>
+      <c r="AS107" s="1"/>
+      <c r="AT107" s="4"/>
+    </row>
+    <row r="108" spans="1:46">
       <c r="A108" s="2"/>
       <c r="B108" s="1" t="s">
         <v>11</v>
@@ -6598,12 +8739,30 @@
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
-      <c r="AA108" s="1" t="s">
+      <c r="AA108" s="3"/>
+      <c r="AB108" s="3"/>
+      <c r="AC108" s="3"/>
+      <c r="AD108" s="3"/>
+      <c r="AE108" s="3"/>
+      <c r="AF108" s="3"/>
+      <c r="AG108" s="3"/>
+      <c r="AH108" s="3"/>
+      <c r="AI108" s="3"/>
+      <c r="AJ108" s="3"/>
+      <c r="AK108" s="3"/>
+      <c r="AL108" s="3"/>
+      <c r="AM108" s="3"/>
+      <c r="AN108" s="3"/>
+      <c r="AO108" s="3"/>
+      <c r="AP108" s="3"/>
+      <c r="AQ108" s="3"/>
+      <c r="AR108" s="3"/>
+      <c r="AS108" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AB108" s="4"/>
-    </row>
-    <row r="109" spans="1:28">
+      <c r="AT108" s="4"/>
+    </row>
+    <row r="109" spans="1:46">
       <c r="A109" s="2"/>
       <c r="B109" s="1"/>
       <c r="C109" s="3"/>
@@ -6630,10 +8789,28 @@
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
-      <c r="AA109" s="1"/>
-      <c r="AB109" s="4"/>
-    </row>
-    <row r="110" spans="1:28">
+      <c r="AA109" s="3"/>
+      <c r="AB109" s="3"/>
+      <c r="AC109" s="3"/>
+      <c r="AD109" s="3"/>
+      <c r="AE109" s="3"/>
+      <c r="AF109" s="3"/>
+      <c r="AG109" s="3"/>
+      <c r="AH109" s="3"/>
+      <c r="AI109" s="3"/>
+      <c r="AJ109" s="3"/>
+      <c r="AK109" s="3"/>
+      <c r="AL109" s="3"/>
+      <c r="AM109" s="3"/>
+      <c r="AN109" s="3"/>
+      <c r="AO109" s="3"/>
+      <c r="AP109" s="3"/>
+      <c r="AQ109" s="3"/>
+      <c r="AR109" s="3"/>
+      <c r="AS109" s="1"/>
+      <c r="AT109" s="4"/>
+    </row>
+    <row r="110" spans="1:46">
       <c r="A110" s="2"/>
       <c r="B110" s="1"/>
       <c r="C110" s="5"/>
@@ -6660,10 +8837,28 @@
       <c r="X110" s="5"/>
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
-      <c r="AA110" s="1"/>
-      <c r="AB110" s="4"/>
-    </row>
-    <row r="111" spans="1:28">
+      <c r="AA110" s="5"/>
+      <c r="AB110" s="5"/>
+      <c r="AC110" s="5"/>
+      <c r="AD110" s="5"/>
+      <c r="AE110" s="5"/>
+      <c r="AF110" s="5"/>
+      <c r="AG110" s="5"/>
+      <c r="AH110" s="5"/>
+      <c r="AI110" s="5"/>
+      <c r="AJ110" s="5"/>
+      <c r="AK110" s="5"/>
+      <c r="AL110" s="5"/>
+      <c r="AM110" s="5"/>
+      <c r="AN110" s="5"/>
+      <c r="AO110" s="5"/>
+      <c r="AP110" s="5"/>
+      <c r="AQ110" s="5"/>
+      <c r="AR110" s="5"/>
+      <c r="AS110" s="1"/>
+      <c r="AT110" s="4"/>
+    </row>
+    <row r="111" spans="1:46">
       <c r="A111" s="2"/>
       <c r="B111" s="1"/>
       <c r="C111" s="5"/>
@@ -6690,11 +8885,29 @@
       <c r="X111" s="5"/>
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
-      <c r="AA111" s="1"/>
-      <c r="AB111" s="4"/>
+      <c r="AA111" s="5"/>
+      <c r="AB111" s="5"/>
+      <c r="AC111" s="5"/>
+      <c r="AD111" s="5"/>
+      <c r="AE111" s="5"/>
+      <c r="AF111" s="5"/>
+      <c r="AG111" s="5"/>
+      <c r="AH111" s="5"/>
+      <c r="AI111" s="5"/>
+      <c r="AJ111" s="5"/>
+      <c r="AK111" s="5"/>
+      <c r="AL111" s="5"/>
+      <c r="AM111" s="5"/>
+      <c r="AN111" s="5"/>
+      <c r="AO111" s="5"/>
+      <c r="AP111" s="5"/>
+      <c r="AQ111" s="5"/>
+      <c r="AR111" s="5"/>
+      <c r="AS111" s="1"/>
+      <c r="AT111" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="652">
+  <mergeCells count="1093">
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="A16:A31"/>
@@ -6739,38 +8952,47 @@
     <mergeCell ref="U11:V15"/>
     <mergeCell ref="W11:X15"/>
     <mergeCell ref="Y11:Z15"/>
-    <mergeCell ref="AA11:AA15"/>
-    <mergeCell ref="AB11:AB15"/>
-    <mergeCell ref="AA16:AA19"/>
-    <mergeCell ref="AA20:AA23"/>
-    <mergeCell ref="AA24:AA27"/>
-    <mergeCell ref="AA28:AA31"/>
-    <mergeCell ref="AA32:AA35"/>
-    <mergeCell ref="AA36:AA39"/>
-    <mergeCell ref="AA40:AA43"/>
-    <mergeCell ref="AA44:AA47"/>
-    <mergeCell ref="AA48:AA51"/>
-    <mergeCell ref="AA52:AA55"/>
-    <mergeCell ref="AA56:AA59"/>
-    <mergeCell ref="AA60:AA63"/>
-    <mergeCell ref="AA64:AA67"/>
-    <mergeCell ref="AA68:AA71"/>
-    <mergeCell ref="AA72:AA75"/>
-    <mergeCell ref="AA76:AA79"/>
-    <mergeCell ref="AA80:AA83"/>
-    <mergeCell ref="AA84:AA87"/>
-    <mergeCell ref="AA88:AA91"/>
-    <mergeCell ref="AA92:AA95"/>
-    <mergeCell ref="AA96:AA99"/>
-    <mergeCell ref="AA100:AA103"/>
-    <mergeCell ref="AA104:AA107"/>
-    <mergeCell ref="AA108:AA111"/>
-    <mergeCell ref="AB16:AB31"/>
-    <mergeCell ref="AB32:AB47"/>
-    <mergeCell ref="AB48:AB63"/>
-    <mergeCell ref="AB64:AB79"/>
-    <mergeCell ref="AB80:AB95"/>
-    <mergeCell ref="AB96:AB111"/>
+    <mergeCell ref="AA11:AB15"/>
+    <mergeCell ref="AC11:AD15"/>
+    <mergeCell ref="AE11:AF15"/>
+    <mergeCell ref="AG11:AH15"/>
+    <mergeCell ref="AI11:AJ15"/>
+    <mergeCell ref="AK11:AL15"/>
+    <mergeCell ref="AM11:AN15"/>
+    <mergeCell ref="AO11:AP15"/>
+    <mergeCell ref="AQ11:AR15"/>
+    <mergeCell ref="AS11:AS15"/>
+    <mergeCell ref="AT11:AT15"/>
+    <mergeCell ref="AS16:AS19"/>
+    <mergeCell ref="AS20:AS23"/>
+    <mergeCell ref="AS24:AS27"/>
+    <mergeCell ref="AS28:AS31"/>
+    <mergeCell ref="AS32:AS35"/>
+    <mergeCell ref="AS36:AS39"/>
+    <mergeCell ref="AS40:AS43"/>
+    <mergeCell ref="AS44:AS47"/>
+    <mergeCell ref="AS48:AS51"/>
+    <mergeCell ref="AS52:AS55"/>
+    <mergeCell ref="AS56:AS59"/>
+    <mergeCell ref="AS60:AS63"/>
+    <mergeCell ref="AS64:AS67"/>
+    <mergeCell ref="AS68:AS71"/>
+    <mergeCell ref="AS72:AS75"/>
+    <mergeCell ref="AS76:AS79"/>
+    <mergeCell ref="AS80:AS83"/>
+    <mergeCell ref="AS84:AS87"/>
+    <mergeCell ref="AS88:AS91"/>
+    <mergeCell ref="AS92:AS95"/>
+    <mergeCell ref="AS96:AS99"/>
+    <mergeCell ref="AS100:AS103"/>
+    <mergeCell ref="AS104:AS107"/>
+    <mergeCell ref="AS108:AS111"/>
+    <mergeCell ref="AT16:AT31"/>
+    <mergeCell ref="AT32:AT47"/>
+    <mergeCell ref="AT48:AT63"/>
+    <mergeCell ref="AT64:AT79"/>
+    <mergeCell ref="AT80:AT95"/>
+    <mergeCell ref="AT96:AT111"/>
     <mergeCell ref="C16:D17"/>
     <mergeCell ref="C18:D19"/>
     <mergeCell ref="C32:D33"/>
@@ -7347,6 +9569,438 @@
     <mergeCell ref="Y94:Z95"/>
     <mergeCell ref="Y108:Z109"/>
     <mergeCell ref="Y110:Z111"/>
+    <mergeCell ref="AA16:AB17"/>
+    <mergeCell ref="AA18:AB19"/>
+    <mergeCell ref="AA32:AB33"/>
+    <mergeCell ref="AA34:AB35"/>
+    <mergeCell ref="AA48:AB49"/>
+    <mergeCell ref="AA50:AB51"/>
+    <mergeCell ref="AA64:AB65"/>
+    <mergeCell ref="AA66:AB67"/>
+    <mergeCell ref="AA80:AB81"/>
+    <mergeCell ref="AA82:AB83"/>
+    <mergeCell ref="AA96:AB97"/>
+    <mergeCell ref="AA98:AB99"/>
+    <mergeCell ref="AA20:AB21"/>
+    <mergeCell ref="AA22:AB23"/>
+    <mergeCell ref="AA36:AB37"/>
+    <mergeCell ref="AA38:AB39"/>
+    <mergeCell ref="AA52:AB53"/>
+    <mergeCell ref="AA54:AB55"/>
+    <mergeCell ref="AA68:AB69"/>
+    <mergeCell ref="AA70:AB71"/>
+    <mergeCell ref="AA84:AB85"/>
+    <mergeCell ref="AA86:AB87"/>
+    <mergeCell ref="AA100:AB101"/>
+    <mergeCell ref="AA102:AB103"/>
+    <mergeCell ref="AA24:AB25"/>
+    <mergeCell ref="AA26:AB27"/>
+    <mergeCell ref="AA40:AB41"/>
+    <mergeCell ref="AA42:AB43"/>
+    <mergeCell ref="AA56:AB57"/>
+    <mergeCell ref="AA58:AB59"/>
+    <mergeCell ref="AA72:AB73"/>
+    <mergeCell ref="AA74:AB75"/>
+    <mergeCell ref="AA88:AB89"/>
+    <mergeCell ref="AA90:AB91"/>
+    <mergeCell ref="AA104:AB105"/>
+    <mergeCell ref="AA106:AB107"/>
+    <mergeCell ref="AA28:AB29"/>
+    <mergeCell ref="AA30:AB31"/>
+    <mergeCell ref="AA44:AB45"/>
+    <mergeCell ref="AA46:AB47"/>
+    <mergeCell ref="AA60:AB61"/>
+    <mergeCell ref="AA62:AB63"/>
+    <mergeCell ref="AA76:AB77"/>
+    <mergeCell ref="AA78:AB79"/>
+    <mergeCell ref="AA92:AB93"/>
+    <mergeCell ref="AA94:AB95"/>
+    <mergeCell ref="AA108:AB109"/>
+    <mergeCell ref="AA110:AB111"/>
+    <mergeCell ref="AC16:AD17"/>
+    <mergeCell ref="AC18:AD19"/>
+    <mergeCell ref="AC32:AD33"/>
+    <mergeCell ref="AC34:AD35"/>
+    <mergeCell ref="AC48:AD49"/>
+    <mergeCell ref="AC50:AD51"/>
+    <mergeCell ref="AC64:AD65"/>
+    <mergeCell ref="AC66:AD67"/>
+    <mergeCell ref="AC80:AD81"/>
+    <mergeCell ref="AC82:AD83"/>
+    <mergeCell ref="AC96:AD97"/>
+    <mergeCell ref="AC98:AD99"/>
+    <mergeCell ref="AC20:AD21"/>
+    <mergeCell ref="AC22:AD23"/>
+    <mergeCell ref="AC36:AD37"/>
+    <mergeCell ref="AC38:AD39"/>
+    <mergeCell ref="AC52:AD53"/>
+    <mergeCell ref="AC54:AD55"/>
+    <mergeCell ref="AC68:AD69"/>
+    <mergeCell ref="AC70:AD71"/>
+    <mergeCell ref="AC84:AD85"/>
+    <mergeCell ref="AC86:AD87"/>
+    <mergeCell ref="AC100:AD101"/>
+    <mergeCell ref="AC102:AD103"/>
+    <mergeCell ref="AC24:AD25"/>
+    <mergeCell ref="AC26:AD27"/>
+    <mergeCell ref="AC40:AD41"/>
+    <mergeCell ref="AC42:AD43"/>
+    <mergeCell ref="AC56:AD57"/>
+    <mergeCell ref="AC58:AD59"/>
+    <mergeCell ref="AC72:AD73"/>
+    <mergeCell ref="AC74:AD75"/>
+    <mergeCell ref="AC88:AD89"/>
+    <mergeCell ref="AC90:AD91"/>
+    <mergeCell ref="AC104:AD105"/>
+    <mergeCell ref="AC106:AD107"/>
+    <mergeCell ref="AC28:AD29"/>
+    <mergeCell ref="AC30:AD31"/>
+    <mergeCell ref="AC44:AD45"/>
+    <mergeCell ref="AC46:AD47"/>
+    <mergeCell ref="AC60:AD61"/>
+    <mergeCell ref="AC62:AD63"/>
+    <mergeCell ref="AC76:AD77"/>
+    <mergeCell ref="AC78:AD79"/>
+    <mergeCell ref="AC92:AD93"/>
+    <mergeCell ref="AC94:AD95"/>
+    <mergeCell ref="AC108:AD109"/>
+    <mergeCell ref="AC110:AD111"/>
+    <mergeCell ref="AE16:AF17"/>
+    <mergeCell ref="AE18:AF19"/>
+    <mergeCell ref="AE32:AF33"/>
+    <mergeCell ref="AE34:AF35"/>
+    <mergeCell ref="AE48:AF49"/>
+    <mergeCell ref="AE50:AF51"/>
+    <mergeCell ref="AE64:AF65"/>
+    <mergeCell ref="AE66:AF67"/>
+    <mergeCell ref="AE80:AF81"/>
+    <mergeCell ref="AE82:AF83"/>
+    <mergeCell ref="AE96:AF97"/>
+    <mergeCell ref="AE98:AF99"/>
+    <mergeCell ref="AE20:AF21"/>
+    <mergeCell ref="AE22:AF23"/>
+    <mergeCell ref="AE36:AF37"/>
+    <mergeCell ref="AE38:AF39"/>
+    <mergeCell ref="AE52:AF53"/>
+    <mergeCell ref="AE54:AF55"/>
+    <mergeCell ref="AE68:AF69"/>
+    <mergeCell ref="AE70:AF71"/>
+    <mergeCell ref="AE84:AF85"/>
+    <mergeCell ref="AE86:AF87"/>
+    <mergeCell ref="AE100:AF101"/>
+    <mergeCell ref="AE102:AF103"/>
+    <mergeCell ref="AE24:AF25"/>
+    <mergeCell ref="AE26:AF27"/>
+    <mergeCell ref="AE40:AF41"/>
+    <mergeCell ref="AE42:AF43"/>
+    <mergeCell ref="AE56:AF57"/>
+    <mergeCell ref="AE58:AF59"/>
+    <mergeCell ref="AE72:AF73"/>
+    <mergeCell ref="AE74:AF75"/>
+    <mergeCell ref="AE88:AF89"/>
+    <mergeCell ref="AE90:AF91"/>
+    <mergeCell ref="AE104:AF105"/>
+    <mergeCell ref="AE106:AF107"/>
+    <mergeCell ref="AE28:AF29"/>
+    <mergeCell ref="AE30:AF31"/>
+    <mergeCell ref="AE44:AF45"/>
+    <mergeCell ref="AE46:AF47"/>
+    <mergeCell ref="AE60:AF61"/>
+    <mergeCell ref="AE62:AF63"/>
+    <mergeCell ref="AE76:AF77"/>
+    <mergeCell ref="AE78:AF79"/>
+    <mergeCell ref="AE92:AF93"/>
+    <mergeCell ref="AE94:AF95"/>
+    <mergeCell ref="AE108:AF109"/>
+    <mergeCell ref="AE110:AF111"/>
+    <mergeCell ref="AG16:AH17"/>
+    <mergeCell ref="AG18:AH19"/>
+    <mergeCell ref="AG32:AH33"/>
+    <mergeCell ref="AG34:AH35"/>
+    <mergeCell ref="AG48:AH49"/>
+    <mergeCell ref="AG50:AH51"/>
+    <mergeCell ref="AG64:AH65"/>
+    <mergeCell ref="AG66:AH67"/>
+    <mergeCell ref="AG80:AH81"/>
+    <mergeCell ref="AG82:AH83"/>
+    <mergeCell ref="AG96:AH97"/>
+    <mergeCell ref="AG98:AH99"/>
+    <mergeCell ref="AG20:AH21"/>
+    <mergeCell ref="AG22:AH23"/>
+    <mergeCell ref="AG36:AH37"/>
+    <mergeCell ref="AG38:AH39"/>
+    <mergeCell ref="AG52:AH53"/>
+    <mergeCell ref="AG54:AH55"/>
+    <mergeCell ref="AG68:AH69"/>
+    <mergeCell ref="AG70:AH71"/>
+    <mergeCell ref="AG84:AH85"/>
+    <mergeCell ref="AG86:AH87"/>
+    <mergeCell ref="AG100:AH101"/>
+    <mergeCell ref="AG102:AH103"/>
+    <mergeCell ref="AG24:AH25"/>
+    <mergeCell ref="AG26:AH27"/>
+    <mergeCell ref="AG40:AH41"/>
+    <mergeCell ref="AG42:AH43"/>
+    <mergeCell ref="AG56:AH57"/>
+    <mergeCell ref="AG58:AH59"/>
+    <mergeCell ref="AG72:AH73"/>
+    <mergeCell ref="AG74:AH75"/>
+    <mergeCell ref="AG88:AH89"/>
+    <mergeCell ref="AG90:AH91"/>
+    <mergeCell ref="AG104:AH105"/>
+    <mergeCell ref="AG106:AH107"/>
+    <mergeCell ref="AG28:AH29"/>
+    <mergeCell ref="AG30:AH31"/>
+    <mergeCell ref="AG44:AH45"/>
+    <mergeCell ref="AG46:AH47"/>
+    <mergeCell ref="AG60:AH61"/>
+    <mergeCell ref="AG62:AH63"/>
+    <mergeCell ref="AG76:AH77"/>
+    <mergeCell ref="AG78:AH79"/>
+    <mergeCell ref="AG92:AH93"/>
+    <mergeCell ref="AG94:AH95"/>
+    <mergeCell ref="AG108:AH109"/>
+    <mergeCell ref="AG110:AH111"/>
+    <mergeCell ref="AI16:AJ17"/>
+    <mergeCell ref="AI18:AJ19"/>
+    <mergeCell ref="AI32:AJ33"/>
+    <mergeCell ref="AI34:AJ35"/>
+    <mergeCell ref="AI48:AJ49"/>
+    <mergeCell ref="AI50:AJ51"/>
+    <mergeCell ref="AI64:AJ65"/>
+    <mergeCell ref="AI66:AJ67"/>
+    <mergeCell ref="AI80:AJ81"/>
+    <mergeCell ref="AI82:AJ83"/>
+    <mergeCell ref="AI96:AJ97"/>
+    <mergeCell ref="AI98:AJ99"/>
+    <mergeCell ref="AI20:AJ21"/>
+    <mergeCell ref="AI22:AJ23"/>
+    <mergeCell ref="AI36:AJ37"/>
+    <mergeCell ref="AI38:AJ39"/>
+    <mergeCell ref="AI52:AJ53"/>
+    <mergeCell ref="AI54:AJ55"/>
+    <mergeCell ref="AI68:AJ69"/>
+    <mergeCell ref="AI70:AJ71"/>
+    <mergeCell ref="AI84:AJ85"/>
+    <mergeCell ref="AI86:AJ87"/>
+    <mergeCell ref="AI100:AJ101"/>
+    <mergeCell ref="AI102:AJ103"/>
+    <mergeCell ref="AI24:AJ25"/>
+    <mergeCell ref="AI26:AJ27"/>
+    <mergeCell ref="AI40:AJ41"/>
+    <mergeCell ref="AI42:AJ43"/>
+    <mergeCell ref="AI56:AJ57"/>
+    <mergeCell ref="AI58:AJ59"/>
+    <mergeCell ref="AI72:AJ73"/>
+    <mergeCell ref="AI74:AJ75"/>
+    <mergeCell ref="AI88:AJ89"/>
+    <mergeCell ref="AI90:AJ91"/>
+    <mergeCell ref="AI104:AJ105"/>
+    <mergeCell ref="AI106:AJ107"/>
+    <mergeCell ref="AI28:AJ29"/>
+    <mergeCell ref="AI30:AJ31"/>
+    <mergeCell ref="AI44:AJ45"/>
+    <mergeCell ref="AI46:AJ47"/>
+    <mergeCell ref="AI60:AJ61"/>
+    <mergeCell ref="AI62:AJ63"/>
+    <mergeCell ref="AI76:AJ77"/>
+    <mergeCell ref="AI78:AJ79"/>
+    <mergeCell ref="AI92:AJ93"/>
+    <mergeCell ref="AI94:AJ95"/>
+    <mergeCell ref="AI108:AJ109"/>
+    <mergeCell ref="AI110:AJ111"/>
+    <mergeCell ref="AK16:AL17"/>
+    <mergeCell ref="AK18:AL19"/>
+    <mergeCell ref="AK32:AL33"/>
+    <mergeCell ref="AK34:AL35"/>
+    <mergeCell ref="AK48:AL49"/>
+    <mergeCell ref="AK50:AL51"/>
+    <mergeCell ref="AK64:AL65"/>
+    <mergeCell ref="AK66:AL67"/>
+    <mergeCell ref="AK80:AL81"/>
+    <mergeCell ref="AK82:AL83"/>
+    <mergeCell ref="AK96:AL97"/>
+    <mergeCell ref="AK98:AL99"/>
+    <mergeCell ref="AK20:AL21"/>
+    <mergeCell ref="AK22:AL23"/>
+    <mergeCell ref="AK36:AL37"/>
+    <mergeCell ref="AK38:AL39"/>
+    <mergeCell ref="AK52:AL53"/>
+    <mergeCell ref="AK54:AL55"/>
+    <mergeCell ref="AK68:AL69"/>
+    <mergeCell ref="AK70:AL71"/>
+    <mergeCell ref="AK84:AL85"/>
+    <mergeCell ref="AK86:AL87"/>
+    <mergeCell ref="AK100:AL101"/>
+    <mergeCell ref="AK102:AL103"/>
+    <mergeCell ref="AK24:AL25"/>
+    <mergeCell ref="AK26:AL27"/>
+    <mergeCell ref="AK40:AL41"/>
+    <mergeCell ref="AK42:AL43"/>
+    <mergeCell ref="AK56:AL57"/>
+    <mergeCell ref="AK58:AL59"/>
+    <mergeCell ref="AK72:AL73"/>
+    <mergeCell ref="AK74:AL75"/>
+    <mergeCell ref="AK88:AL89"/>
+    <mergeCell ref="AK90:AL91"/>
+    <mergeCell ref="AK104:AL105"/>
+    <mergeCell ref="AK106:AL107"/>
+    <mergeCell ref="AK28:AL29"/>
+    <mergeCell ref="AK30:AL31"/>
+    <mergeCell ref="AK44:AL45"/>
+    <mergeCell ref="AK46:AL47"/>
+    <mergeCell ref="AK60:AL61"/>
+    <mergeCell ref="AK62:AL63"/>
+    <mergeCell ref="AK76:AL77"/>
+    <mergeCell ref="AK78:AL79"/>
+    <mergeCell ref="AK92:AL93"/>
+    <mergeCell ref="AK94:AL95"/>
+    <mergeCell ref="AK108:AL109"/>
+    <mergeCell ref="AK110:AL111"/>
+    <mergeCell ref="AM16:AN17"/>
+    <mergeCell ref="AM18:AN19"/>
+    <mergeCell ref="AM32:AN33"/>
+    <mergeCell ref="AM34:AN35"/>
+    <mergeCell ref="AM48:AN49"/>
+    <mergeCell ref="AM50:AN51"/>
+    <mergeCell ref="AM64:AN65"/>
+    <mergeCell ref="AM66:AN67"/>
+    <mergeCell ref="AM80:AN81"/>
+    <mergeCell ref="AM82:AN83"/>
+    <mergeCell ref="AM96:AN97"/>
+    <mergeCell ref="AM98:AN99"/>
+    <mergeCell ref="AM20:AN21"/>
+    <mergeCell ref="AM22:AN23"/>
+    <mergeCell ref="AM36:AN37"/>
+    <mergeCell ref="AM38:AN39"/>
+    <mergeCell ref="AM52:AN53"/>
+    <mergeCell ref="AM54:AN55"/>
+    <mergeCell ref="AM68:AN69"/>
+    <mergeCell ref="AM70:AN71"/>
+    <mergeCell ref="AM84:AN85"/>
+    <mergeCell ref="AM86:AN87"/>
+    <mergeCell ref="AM100:AN101"/>
+    <mergeCell ref="AM102:AN103"/>
+    <mergeCell ref="AM24:AN25"/>
+    <mergeCell ref="AM26:AN27"/>
+    <mergeCell ref="AM40:AN41"/>
+    <mergeCell ref="AM42:AN43"/>
+    <mergeCell ref="AM56:AN57"/>
+    <mergeCell ref="AM58:AN59"/>
+    <mergeCell ref="AM72:AN73"/>
+    <mergeCell ref="AM74:AN75"/>
+    <mergeCell ref="AM88:AN89"/>
+    <mergeCell ref="AM90:AN91"/>
+    <mergeCell ref="AM104:AN105"/>
+    <mergeCell ref="AM106:AN107"/>
+    <mergeCell ref="AM28:AN29"/>
+    <mergeCell ref="AM30:AN31"/>
+    <mergeCell ref="AM44:AN45"/>
+    <mergeCell ref="AM46:AN47"/>
+    <mergeCell ref="AM60:AN61"/>
+    <mergeCell ref="AM62:AN63"/>
+    <mergeCell ref="AM76:AN77"/>
+    <mergeCell ref="AM78:AN79"/>
+    <mergeCell ref="AM92:AN93"/>
+    <mergeCell ref="AM94:AN95"/>
+    <mergeCell ref="AM108:AN109"/>
+    <mergeCell ref="AM110:AN111"/>
+    <mergeCell ref="AO16:AP17"/>
+    <mergeCell ref="AO18:AP19"/>
+    <mergeCell ref="AO32:AP33"/>
+    <mergeCell ref="AO34:AP35"/>
+    <mergeCell ref="AO48:AP49"/>
+    <mergeCell ref="AO50:AP51"/>
+    <mergeCell ref="AO64:AP65"/>
+    <mergeCell ref="AO66:AP67"/>
+    <mergeCell ref="AO80:AP81"/>
+    <mergeCell ref="AO82:AP83"/>
+    <mergeCell ref="AO96:AP97"/>
+    <mergeCell ref="AO98:AP99"/>
+    <mergeCell ref="AO20:AP21"/>
+    <mergeCell ref="AO22:AP23"/>
+    <mergeCell ref="AO36:AP37"/>
+    <mergeCell ref="AO38:AP39"/>
+    <mergeCell ref="AO52:AP53"/>
+    <mergeCell ref="AO54:AP55"/>
+    <mergeCell ref="AO68:AP69"/>
+    <mergeCell ref="AO70:AP71"/>
+    <mergeCell ref="AO84:AP85"/>
+    <mergeCell ref="AO86:AP87"/>
+    <mergeCell ref="AO100:AP101"/>
+    <mergeCell ref="AO102:AP103"/>
+    <mergeCell ref="AO24:AP25"/>
+    <mergeCell ref="AO26:AP27"/>
+    <mergeCell ref="AO40:AP41"/>
+    <mergeCell ref="AO42:AP43"/>
+    <mergeCell ref="AO56:AP57"/>
+    <mergeCell ref="AO58:AP59"/>
+    <mergeCell ref="AO72:AP73"/>
+    <mergeCell ref="AO74:AP75"/>
+    <mergeCell ref="AO88:AP89"/>
+    <mergeCell ref="AO90:AP91"/>
+    <mergeCell ref="AO104:AP105"/>
+    <mergeCell ref="AO106:AP107"/>
+    <mergeCell ref="AO28:AP29"/>
+    <mergeCell ref="AO30:AP31"/>
+    <mergeCell ref="AO44:AP45"/>
+    <mergeCell ref="AO46:AP47"/>
+    <mergeCell ref="AO60:AP61"/>
+    <mergeCell ref="AO62:AP63"/>
+    <mergeCell ref="AO76:AP77"/>
+    <mergeCell ref="AO78:AP79"/>
+    <mergeCell ref="AO92:AP93"/>
+    <mergeCell ref="AO94:AP95"/>
+    <mergeCell ref="AO108:AP109"/>
+    <mergeCell ref="AO110:AP111"/>
+    <mergeCell ref="AQ16:AR17"/>
+    <mergeCell ref="AQ18:AR19"/>
+    <mergeCell ref="AQ32:AR33"/>
+    <mergeCell ref="AQ34:AR35"/>
+    <mergeCell ref="AQ48:AR49"/>
+    <mergeCell ref="AQ50:AR51"/>
+    <mergeCell ref="AQ64:AR65"/>
+    <mergeCell ref="AQ66:AR67"/>
+    <mergeCell ref="AQ80:AR81"/>
+    <mergeCell ref="AQ82:AR83"/>
+    <mergeCell ref="AQ96:AR97"/>
+    <mergeCell ref="AQ98:AR99"/>
+    <mergeCell ref="AQ20:AR21"/>
+    <mergeCell ref="AQ22:AR23"/>
+    <mergeCell ref="AQ36:AR37"/>
+    <mergeCell ref="AQ38:AR39"/>
+    <mergeCell ref="AQ52:AR53"/>
+    <mergeCell ref="AQ54:AR55"/>
+    <mergeCell ref="AQ68:AR69"/>
+    <mergeCell ref="AQ70:AR71"/>
+    <mergeCell ref="AQ84:AR85"/>
+    <mergeCell ref="AQ86:AR87"/>
+    <mergeCell ref="AQ100:AR101"/>
+    <mergeCell ref="AQ102:AR103"/>
+    <mergeCell ref="AQ24:AR25"/>
+    <mergeCell ref="AQ26:AR27"/>
+    <mergeCell ref="AQ40:AR41"/>
+    <mergeCell ref="AQ42:AR43"/>
+    <mergeCell ref="AQ56:AR57"/>
+    <mergeCell ref="AQ58:AR59"/>
+    <mergeCell ref="AQ72:AR73"/>
+    <mergeCell ref="AQ74:AR75"/>
+    <mergeCell ref="AQ88:AR89"/>
+    <mergeCell ref="AQ90:AR91"/>
+    <mergeCell ref="AQ104:AR105"/>
+    <mergeCell ref="AQ106:AR107"/>
+    <mergeCell ref="AQ28:AR29"/>
+    <mergeCell ref="AQ30:AR31"/>
+    <mergeCell ref="AQ44:AR45"/>
+    <mergeCell ref="AQ46:AR47"/>
+    <mergeCell ref="AQ60:AR61"/>
+    <mergeCell ref="AQ62:AR63"/>
+    <mergeCell ref="AQ76:AR77"/>
+    <mergeCell ref="AQ78:AR79"/>
+    <mergeCell ref="AQ92:AR93"/>
+    <mergeCell ref="AQ94:AR95"/>
+    <mergeCell ref="AQ108:AR109"/>
+    <mergeCell ref="AQ110:AR111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
